--- a/data/获取数据/政策导向指标/国企20年数据/601121.xlsx
+++ b/data/获取数据/政策导向指标/国企20年数据/601121.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="186">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>宝地矿业</t>
   </si>
   <si>
-    <t>601121</t>
-  </si>
-  <si>
     <t>2023-03-10</t>
   </si>
   <si>
@@ -536,6 +560,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>新疆维吾尔自治区人民政府国有资产监督管理委员会</t>
+  </si>
+  <si>
+    <t>新疆地矿投资(集团)有限责任公司;新疆金投资产管理股份有限公司;新疆国有资本产业投资基金有限合伙企业;新疆凯迪投资有限责任公司</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -893,13 +929,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:V162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -939,16 +975,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>601121</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>5.13</v>
@@ -981,4265 +1044,4241 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>601121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R3">
+        <v>46412</v>
+      </c>
+      <c r="S3">
+        <v>58.02</v>
+      </c>
+      <c r="T3" t="s">
+        <v>184</v>
+      </c>
+      <c r="U3" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3">
+        <v>90.8594471100408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="N4">
+        <v>601121</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4">
+        <v>46412</v>
+      </c>
+      <c r="S4">
+        <v>58.02</v>
+      </c>
+      <c r="T4" t="s">
+        <v>184</v>
+      </c>
+      <c r="U4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V4">
+        <v>90.8594471100408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>601121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
         <v>6.81</v>
       </c>
-      <c r="E3">
+      <c r="E5">
         <v>6.81</v>
       </c>
-      <c r="F3">
+      <c r="F5">
         <v>6.81</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>6.81</v>
       </c>
-      <c r="H3">
+      <c r="H5">
         <v>15270</v>
       </c>
-      <c r="I3">
+      <c r="I5">
         <v>10597352</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>10.19</v>
-      </c>
-      <c r="L3">
-        <v>0.63</v>
-      </c>
-      <c r="M3">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>7.5</v>
-      </c>
-      <c r="E4">
-        <v>7.5</v>
-      </c>
-      <c r="F4">
-        <v>7.5</v>
-      </c>
-      <c r="G4">
-        <v>7.5</v>
-      </c>
-      <c r="H4">
-        <v>8570</v>
-      </c>
-      <c r="I4">
-        <v>6538590</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>10.13</v>
-      </c>
-      <c r="L4">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="M4">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>8.26</v>
-      </c>
-      <c r="E5">
-        <v>8.26</v>
-      </c>
-      <c r="F5">
-        <v>8.26</v>
-      </c>
-      <c r="G5">
-        <v>8.26</v>
-      </c>
-      <c r="H5">
-        <v>35323</v>
-      </c>
-      <c r="I5">
-        <v>29636190</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.13</v>
+        <v>10.19</v>
       </c>
       <c r="L5">
+        <v>0.63</v>
+      </c>
+      <c r="M5">
         <v>0.76</v>
       </c>
-      <c r="M5">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>601121</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="E6">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="F6">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="G6">
-        <v>9.1</v>
+        <v>7.5</v>
       </c>
       <c r="H6">
-        <v>17633</v>
+        <v>8570</v>
       </c>
       <c r="I6">
-        <v>16275425</v>
+        <v>6538590</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.17</v>
+        <v>10.13</v>
       </c>
       <c r="L6">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M6">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>601121</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>10.02</v>
+        <v>8.26</v>
       </c>
       <c r="E7">
-        <v>10.02</v>
+        <v>8.26</v>
       </c>
       <c r="F7">
-        <v>10.02</v>
+        <v>8.26</v>
       </c>
       <c r="G7">
-        <v>10.02</v>
+        <v>8.26</v>
       </c>
       <c r="H7">
-        <v>21637</v>
+        <v>35323</v>
       </c>
       <c r="I7">
-        <v>21961403</v>
+        <v>29636190</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.11</v>
+        <v>10.13</v>
       </c>
       <c r="L7">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="M7">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>601121</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>11.04</v>
+        <v>9.1</v>
       </c>
       <c r="E8">
-        <v>11.04</v>
+        <v>9.1</v>
       </c>
       <c r="F8">
-        <v>11.04</v>
+        <v>9.1</v>
       </c>
       <c r="G8">
-        <v>11.04</v>
+        <v>9.1</v>
       </c>
       <c r="H8">
-        <v>15262</v>
+        <v>17633</v>
       </c>
       <c r="I8">
-        <v>17047654</v>
+        <v>16275425</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
+        <v>10.17</v>
+      </c>
+      <c r="L8">
+        <v>0.84</v>
+      </c>
+      <c r="M8">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>601121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>10.02</v>
+      </c>
+      <c r="E9">
+        <v>10.02</v>
+      </c>
+      <c r="F9">
+        <v>10.02</v>
+      </c>
+      <c r="G9">
+        <v>10.02</v>
+      </c>
+      <c r="H9">
+        <v>21637</v>
+      </c>
+      <c r="I9">
+        <v>21961403</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>10.11</v>
+      </c>
+      <c r="L9">
+        <v>0.92</v>
+      </c>
+      <c r="M9">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>601121</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>11.04</v>
+      </c>
+      <c r="E10">
+        <v>11.04</v>
+      </c>
+      <c r="F10">
+        <v>11.04</v>
+      </c>
+      <c r="G10">
+        <v>11.04</v>
+      </c>
+      <c r="H10">
+        <v>15262</v>
+      </c>
+      <c r="I10">
+        <v>17047654</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>10.18</v>
       </c>
-      <c r="L8">
+      <c r="L10">
         <v>1.02</v>
       </c>
-      <c r="M8">
+      <c r="M10">
         <v>0.76</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>601121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
         <v>12.16</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <v>10.76</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <v>12.16</v>
       </c>
-      <c r="G9">
+      <c r="G11">
         <v>9.93</v>
       </c>
-      <c r="H9">
+      <c r="H11">
         <v>1434554</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <v>1550171639</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>20.2</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>-2.54</v>
       </c>
-      <c r="L9">
+      <c r="L11">
         <v>-0.28</v>
       </c>
-      <c r="M9">
+      <c r="M11">
         <v>71.73</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>601121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
         <v>10.08</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>9.67</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>10.16</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>9.67</v>
       </c>
-      <c r="H10">
+      <c r="H12">
         <v>677613</v>
       </c>
-      <c r="I10">
+      <c r="I12">
         <v>675474922</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>4.55</v>
       </c>
-      <c r="K10">
+      <c r="K12">
         <v>-10.13</v>
       </c>
-      <c r="L10">
+      <c r="L12">
         <v>-1.09</v>
       </c>
-      <c r="M10">
+      <c r="M12">
         <v>33.88</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>601121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
         <v>9.24</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>8.98</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>9.31</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>8.890000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>735383</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>675533424</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>4.34</v>
       </c>
-      <c r="K11">
+      <c r="K13">
         <v>-7.14</v>
       </c>
-      <c r="L11">
+      <c r="L13">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="M11">
+      <c r="M13">
         <v>36.77</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>601121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
         <v>8.890000000000001</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>9.039999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>9.140000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>8.82</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>538955</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>491685660</v>
       </c>
-      <c r="J12">
+      <c r="J14">
         <v>3.56</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>0.67</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>0.06</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>26.95</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>601121</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>8.970000000000001</v>
-      </c>
-      <c r="E13">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="F13">
-        <v>9.02</v>
-      </c>
-      <c r="G13">
-        <v>8.68</v>
-      </c>
-      <c r="H13">
-        <v>385749</v>
-      </c>
-      <c r="I13">
-        <v>344474679</v>
-      </c>
-      <c r="J13">
-        <v>3.76</v>
-      </c>
-      <c r="K13">
-        <v>-3.54</v>
-      </c>
-      <c r="L13">
-        <v>-0.32</v>
-      </c>
-      <c r="M13">
-        <v>19.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="E14">
-        <v>9.01</v>
-      </c>
-      <c r="F14">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="G14">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="H14">
-        <v>440044</v>
-      </c>
-      <c r="I14">
-        <v>397255490</v>
-      </c>
-      <c r="J14">
-        <v>5.5</v>
-      </c>
-      <c r="K14">
-        <v>3.33</v>
-      </c>
-      <c r="L14">
-        <v>0.29</v>
-      </c>
-      <c r="M14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
-        <v>9.050000000000001</v>
       </c>
       <c r="E15">
         <v>8.720000000000001</v>
       </c>
       <c r="F15">
-        <v>9.050000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="G15">
-        <v>8.69</v>
+        <v>8.68</v>
       </c>
       <c r="H15">
-        <v>288163</v>
+        <v>385749</v>
       </c>
       <c r="I15">
-        <v>257153061</v>
+        <v>344474679</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>3.76</v>
       </c>
       <c r="K15">
-        <v>-3.22</v>
+        <v>-3.54</v>
       </c>
       <c r="L15">
-        <v>-0.29</v>
+        <v>-0.32</v>
       </c>
       <c r="M15">
-        <v>14.41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>601121</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>8.67</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E16">
-        <v>8.25</v>
+        <v>9.01</v>
       </c>
       <c r="F16">
-        <v>8.710000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G16">
-        <v>8.220000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="H16">
-        <v>319084</v>
+        <v>440044</v>
       </c>
       <c r="I16">
-        <v>271311691</v>
+        <v>397255490</v>
       </c>
       <c r="J16">
-        <v>5.62</v>
+        <v>5.5</v>
       </c>
       <c r="K16">
-        <v>-5.39</v>
+        <v>3.33</v>
       </c>
       <c r="L16">
-        <v>-0.47</v>
+        <v>0.29</v>
       </c>
       <c r="M16">
-        <v>15.95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>601121</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>8.27</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E17">
-        <v>8.35</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F17">
-        <v>8.609999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="G17">
-        <v>8.27</v>
+        <v>8.69</v>
       </c>
       <c r="H17">
-        <v>410670</v>
+        <v>288163</v>
       </c>
       <c r="I17">
-        <v>352811099</v>
+        <v>257153061</v>
       </c>
       <c r="J17">
-        <v>4.12</v>
+        <v>4</v>
       </c>
       <c r="K17">
-        <v>1.21</v>
+        <v>-3.22</v>
       </c>
       <c r="L17">
-        <v>0.1</v>
+        <v>-0.29</v>
       </c>
       <c r="M17">
-        <v>20.53</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>601121</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>8.33</v>
+        <v>8.67</v>
       </c>
       <c r="E18">
-        <v>8.609999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="F18">
-        <v>8.67</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="G18">
-        <v>8.300000000000001</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="H18">
-        <v>404103</v>
+        <v>319084</v>
       </c>
       <c r="I18">
-        <v>349164308</v>
+        <v>271311691</v>
       </c>
       <c r="J18">
-        <v>4.43</v>
+        <v>5.62</v>
       </c>
       <c r="K18">
-        <v>3.11</v>
+        <v>-5.39</v>
       </c>
       <c r="L18">
-        <v>0.26</v>
+        <v>-0.47</v>
       </c>
       <c r="M18">
-        <v>20.21</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>601121</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>8.68</v>
+        <v>8.27</v>
       </c>
       <c r="E19">
-        <v>8.789999999999999</v>
+        <v>8.35</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G19">
-        <v>8.6</v>
+        <v>8.27</v>
       </c>
       <c r="H19">
-        <v>516059</v>
+        <v>410670</v>
       </c>
       <c r="I19">
-        <v>461105766</v>
+        <v>352811099</v>
       </c>
       <c r="J19">
-        <v>4.65</v>
+        <v>4.12</v>
       </c>
       <c r="K19">
-        <v>2.09</v>
+        <v>1.21</v>
       </c>
       <c r="L19">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="M19">
-        <v>25.8</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>601121</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>8.800000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="E20">
-        <v>8.56</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F20">
-        <v>8.800000000000001</v>
+        <v>8.67</v>
       </c>
       <c r="G20">
-        <v>8.550000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H20">
-        <v>294472</v>
+        <v>404103</v>
       </c>
       <c r="I20">
-        <v>257696769</v>
+        <v>349164308</v>
       </c>
       <c r="J20">
-        <v>2.84</v>
+        <v>4.43</v>
       </c>
       <c r="K20">
-        <v>-2.62</v>
+        <v>3.11</v>
       </c>
       <c r="L20">
-        <v>-0.23</v>
+        <v>0.26</v>
       </c>
       <c r="M20">
-        <v>14.72</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>601121</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>8.52</v>
+        <v>8.68</v>
       </c>
       <c r="E21">
-        <v>8.720000000000001</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F21">
-        <v>9.02</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>8.52</v>
+        <v>8.6</v>
       </c>
       <c r="H21">
-        <v>355712</v>
+        <v>516059</v>
       </c>
       <c r="I21">
-        <v>318256302</v>
+        <v>461105766</v>
       </c>
       <c r="J21">
-        <v>5.84</v>
+        <v>4.65</v>
       </c>
       <c r="K21">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="L21">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="M21">
-        <v>17.79</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>601121</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>8.619999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E22">
-        <v>8.52</v>
+        <v>8.56</v>
       </c>
       <c r="F22">
-        <v>8.85</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G22">
-        <v>8.52</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H22">
-        <v>251660</v>
+        <v>294472</v>
       </c>
       <c r="I22">
-        <v>221226885</v>
+        <v>257696769</v>
       </c>
       <c r="J22">
-        <v>3.78</v>
+        <v>2.84</v>
       </c>
       <c r="K22">
-        <v>-2.29</v>
+        <v>-2.62</v>
       </c>
       <c r="L22">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="M22">
-        <v>12.58</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>601121</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>8.44</v>
+        <v>8.52</v>
       </c>
       <c r="E23">
-        <v>8.27</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F23">
-        <v>8.49</v>
+        <v>9.02</v>
       </c>
       <c r="G23">
-        <v>8.19</v>
+        <v>8.52</v>
       </c>
       <c r="H23">
-        <v>253503</v>
+        <v>355712</v>
       </c>
       <c r="I23">
-        <v>213115740</v>
+        <v>318256302</v>
       </c>
       <c r="J23">
-        <v>3.52</v>
+        <v>5.84</v>
       </c>
       <c r="K23">
-        <v>-2.93</v>
+        <v>1.87</v>
       </c>
       <c r="L23">
-        <v>-0.25</v>
+        <v>0.16</v>
       </c>
       <c r="M23">
-        <v>12.68</v>
+        <v>17.79</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>601121</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D24">
-        <v>8.26</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="E24">
-        <v>8.220000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="F24">
-        <v>8.34</v>
+        <v>8.85</v>
       </c>
       <c r="G24">
-        <v>8.140000000000001</v>
+        <v>8.52</v>
       </c>
       <c r="H24">
-        <v>152738</v>
+        <v>251660</v>
       </c>
       <c r="I24">
-        <v>127601989</v>
+        <v>221226885</v>
       </c>
       <c r="J24">
-        <v>2.42</v>
+        <v>3.78</v>
       </c>
       <c r="K24">
-        <v>-0.6</v>
+        <v>-2.29</v>
       </c>
       <c r="L24">
-        <v>-0.05</v>
+        <v>-0.2</v>
       </c>
       <c r="M24">
-        <v>7.64</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>601121</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D25">
+        <v>8.44</v>
+      </c>
+      <c r="E25">
+        <v>8.27</v>
+      </c>
+      <c r="F25">
+        <v>8.49</v>
+      </c>
+      <c r="G25">
         <v>8.19</v>
       </c>
-      <c r="E25">
-        <v>8.18</v>
-      </c>
-      <c r="F25">
-        <v>8.26</v>
-      </c>
-      <c r="G25">
-        <v>8.15</v>
-      </c>
       <c r="H25">
-        <v>122813</v>
+        <v>253503</v>
       </c>
       <c r="I25">
-        <v>102244231</v>
+        <v>213115740</v>
       </c>
       <c r="J25">
-        <v>1.34</v>
+        <v>3.52</v>
       </c>
       <c r="K25">
-        <v>-0.49</v>
+        <v>-2.93</v>
       </c>
       <c r="L25">
-        <v>-0.04</v>
+        <v>-0.25</v>
       </c>
       <c r="M25">
-        <v>6.14</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>601121</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>8.18</v>
+        <v>8.26</v>
       </c>
       <c r="E26">
-        <v>8.51</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F26">
-        <v>8.51</v>
+        <v>8.34</v>
       </c>
       <c r="G26">
-        <v>8.17</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="H26">
-        <v>240859</v>
+        <v>152738</v>
       </c>
       <c r="I26">
-        <v>204906250</v>
+        <v>127601989</v>
       </c>
       <c r="J26">
-        <v>4.16</v>
+        <v>2.42</v>
       </c>
       <c r="K26">
-        <v>4.03</v>
+        <v>-0.6</v>
       </c>
       <c r="L26">
-        <v>0.33</v>
+        <v>-0.05</v>
       </c>
       <c r="M26">
-        <v>12.04</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>601121</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>8.550000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="E27">
-        <v>8.720000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="F27">
-        <v>8.94</v>
+        <v>8.26</v>
       </c>
       <c r="G27">
-        <v>8.48</v>
+        <v>8.15</v>
       </c>
       <c r="H27">
-        <v>336014</v>
+        <v>122813</v>
       </c>
       <c r="I27">
-        <v>297555910</v>
+        <v>102244231</v>
       </c>
       <c r="J27">
-        <v>5.41</v>
+        <v>1.34</v>
       </c>
       <c r="K27">
-        <v>2.47</v>
+        <v>-0.49</v>
       </c>
       <c r="L27">
-        <v>0.21</v>
+        <v>-0.04</v>
       </c>
       <c r="M27">
-        <v>16.8</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>601121</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>8.630000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="E28">
-        <v>8.369999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="F28">
-        <v>8.66</v>
+        <v>8.51</v>
       </c>
       <c r="G28">
-        <v>8.32</v>
+        <v>8.17</v>
       </c>
       <c r="H28">
-        <v>214222</v>
+        <v>240859</v>
       </c>
       <c r="I28">
-        <v>183718184</v>
+        <v>204906250</v>
       </c>
       <c r="J28">
-        <v>3.9</v>
+        <v>4.16</v>
       </c>
       <c r="K28">
-        <v>-4.01</v>
+        <v>4.03</v>
       </c>
       <c r="L28">
-        <v>-0.35</v>
+        <v>0.33</v>
       </c>
       <c r="M28">
-        <v>10.71</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>601121</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>8.33</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="E29">
-        <v>9.220000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F29">
-        <v>9.220000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="G29">
-        <v>8.32</v>
+        <v>8.48</v>
       </c>
       <c r="H29">
-        <v>413971</v>
+        <v>336014</v>
       </c>
       <c r="I29">
-        <v>377304522</v>
+        <v>297555910</v>
       </c>
       <c r="J29">
-        <v>10.75</v>
+        <v>5.41</v>
       </c>
       <c r="K29">
-        <v>10.16</v>
+        <v>2.47</v>
       </c>
       <c r="L29">
-        <v>0.85</v>
+        <v>0.21</v>
       </c>
       <c r="M29">
-        <v>20.7</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>601121</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>9.220000000000001</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E30">
-        <v>8.960000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F30">
-        <v>9.279999999999999</v>
+        <v>8.66</v>
       </c>
       <c r="G30">
-        <v>8.83</v>
+        <v>8.32</v>
       </c>
       <c r="H30">
-        <v>483745</v>
+        <v>214222</v>
       </c>
       <c r="I30">
-        <v>442323933</v>
+        <v>183718184</v>
       </c>
       <c r="J30">
-        <v>4.88</v>
+        <v>3.9</v>
       </c>
       <c r="K30">
-        <v>-2.82</v>
+        <v>-4.01</v>
       </c>
       <c r="L30">
-        <v>-0.26</v>
+        <v>-0.35</v>
       </c>
       <c r="M30">
-        <v>24.19</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>601121</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>8.94</v>
+        <v>8.33</v>
       </c>
       <c r="E31">
-        <v>9.050000000000001</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F31">
-        <v>9.359999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G31">
-        <v>8.91</v>
+        <v>8.32</v>
       </c>
       <c r="H31">
-        <v>482977</v>
+        <v>413971</v>
       </c>
       <c r="I31">
-        <v>445926104</v>
+        <v>377304522</v>
       </c>
       <c r="J31">
-        <v>5.02</v>
+        <v>10.75</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>10.16</v>
       </c>
       <c r="L31">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="M31">
-        <v>24.15</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>601121</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D32">
-        <v>8.94</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E32">
-        <v>8.710000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="F32">
-        <v>9.02</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G32">
-        <v>8.380000000000001</v>
+        <v>8.83</v>
       </c>
       <c r="H32">
-        <v>331737</v>
+        <v>483745</v>
       </c>
       <c r="I32">
-        <v>293002915</v>
+        <v>442323933</v>
       </c>
       <c r="J32">
-        <v>7.07</v>
+        <v>4.88</v>
       </c>
       <c r="K32">
-        <v>-3.76</v>
+        <v>-2.82</v>
       </c>
       <c r="L32">
-        <v>-0.34</v>
+        <v>-0.26</v>
       </c>
       <c r="M32">
-        <v>16.59</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>601121</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <v>8.630000000000001</v>
+        <v>8.94</v>
       </c>
       <c r="E33">
-        <v>7.83</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F33">
-        <v>8.890000000000001</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G33">
-        <v>7.83</v>
+        <v>8.91</v>
       </c>
       <c r="H33">
-        <v>437539</v>
+        <v>482977</v>
       </c>
       <c r="I33">
-        <v>362311601</v>
+        <v>445926104</v>
       </c>
       <c r="J33">
-        <v>12.17</v>
+        <v>5.02</v>
       </c>
       <c r="K33">
-        <v>-10.1</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>-0.88</v>
+        <v>0.09</v>
       </c>
       <c r="M33">
-        <v>21.88</v>
+        <v>24.15</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>601121</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>7.67</v>
+        <v>8.94</v>
       </c>
       <c r="E34">
-        <v>7.77</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F34">
-        <v>7.96</v>
+        <v>9.02</v>
       </c>
       <c r="G34">
-        <v>7.59</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="H34">
-        <v>222870</v>
+        <v>331737</v>
       </c>
       <c r="I34">
-        <v>176940859</v>
+        <v>293002915</v>
       </c>
       <c r="J34">
-        <v>4.73</v>
+        <v>7.07</v>
       </c>
       <c r="K34">
-        <v>-0.77</v>
+        <v>-3.76</v>
       </c>
       <c r="L34">
-        <v>-0.06</v>
+        <v>-0.34</v>
       </c>
       <c r="M34">
-        <v>11.14</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>601121</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>7.77</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="E35">
-        <v>7.97</v>
+        <v>7.83</v>
       </c>
       <c r="F35">
-        <v>8.109999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G35">
-        <v>7.74</v>
+        <v>7.83</v>
       </c>
       <c r="H35">
-        <v>192015</v>
+        <v>437539</v>
       </c>
       <c r="I35">
-        <v>155614271</v>
+        <v>362311601</v>
       </c>
       <c r="J35">
-        <v>4.76</v>
+        <v>12.17</v>
       </c>
       <c r="K35">
-        <v>2.57</v>
+        <v>-10.1</v>
       </c>
       <c r="L35">
-        <v>0.2</v>
+        <v>-0.88</v>
       </c>
       <c r="M35">
-        <v>9.6</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>601121</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>8.07</v>
+        <v>7.67</v>
       </c>
       <c r="E36">
-        <v>8.35</v>
+        <v>7.77</v>
       </c>
       <c r="F36">
-        <v>8.4</v>
+        <v>7.96</v>
       </c>
       <c r="G36">
-        <v>7.97</v>
+        <v>7.59</v>
       </c>
       <c r="H36">
-        <v>193065</v>
+        <v>222870</v>
       </c>
       <c r="I36">
-        <v>162113620</v>
+        <v>176940859</v>
       </c>
       <c r="J36">
-        <v>5.4</v>
+        <v>4.73</v>
       </c>
       <c r="K36">
-        <v>4.77</v>
+        <v>-0.77</v>
       </c>
       <c r="L36">
-        <v>0.38</v>
+        <v>-0.06</v>
       </c>
       <c r="M36">
-        <v>9.65</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>601121</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>8.27</v>
+        <v>7.77</v>
       </c>
       <c r="E37">
-        <v>8.699999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="F37">
-        <v>8.81</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="G37">
-        <v>8.27</v>
+        <v>7.74</v>
       </c>
       <c r="H37">
-        <v>210460</v>
+        <v>192015</v>
       </c>
       <c r="I37">
-        <v>184488144</v>
+        <v>155614271</v>
       </c>
       <c r="J37">
-        <v>6.47</v>
+        <v>4.76</v>
       </c>
       <c r="K37">
-        <v>4.19</v>
+        <v>2.57</v>
       </c>
       <c r="L37">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="M37">
-        <v>10.52</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>601121</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D38">
-        <v>8.710000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="E38">
-        <v>8.9</v>
+        <v>8.35</v>
       </c>
       <c r="F38">
-        <v>8.970000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="G38">
-        <v>8.529999999999999</v>
+        <v>7.97</v>
       </c>
       <c r="H38">
-        <v>241368</v>
+        <v>193065</v>
       </c>
       <c r="I38">
-        <v>215103339</v>
+        <v>162113620</v>
       </c>
       <c r="J38">
-        <v>5.06</v>
+        <v>5.4</v>
       </c>
       <c r="K38">
-        <v>2.3</v>
+        <v>4.77</v>
       </c>
       <c r="L38">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="M38">
-        <v>12.07</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>601121</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>8.93</v>
+        <v>8.27</v>
       </c>
       <c r="E39">
-        <v>8.789999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>8.81</v>
       </c>
       <c r="G39">
-        <v>8.65</v>
+        <v>8.27</v>
       </c>
       <c r="H39">
-        <v>199301</v>
+        <v>210460</v>
       </c>
       <c r="I39">
-        <v>177166640</v>
+        <v>184488144</v>
       </c>
       <c r="J39">
-        <v>3.93</v>
+        <v>6.47</v>
       </c>
       <c r="K39">
-        <v>-1.24</v>
+        <v>4.19</v>
       </c>
       <c r="L39">
-        <v>-0.11</v>
+        <v>0.35</v>
       </c>
       <c r="M39">
-        <v>9.970000000000001</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>601121</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>9.02</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E40">
-        <v>9.25</v>
+        <v>8.9</v>
       </c>
       <c r="F40">
-        <v>9.67</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G40">
-        <v>8.77</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="H40">
-        <v>471341</v>
+        <v>241368</v>
       </c>
       <c r="I40">
-        <v>441199420</v>
+        <v>215103339</v>
       </c>
       <c r="J40">
-        <v>10.24</v>
+        <v>5.06</v>
       </c>
       <c r="K40">
-        <v>5.23</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
-        <v>0.46</v>
+        <v>0.2</v>
       </c>
       <c r="M40">
-        <v>23.57</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>601121</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D41">
-        <v>9.06</v>
+        <v>8.93</v>
       </c>
       <c r="E41">
-        <v>8.98</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F41">
-        <v>9.220000000000001</v>
+        <v>9</v>
       </c>
       <c r="G41">
-        <v>8.92</v>
+        <v>8.65</v>
       </c>
       <c r="H41">
-        <v>265404</v>
+        <v>199301</v>
       </c>
       <c r="I41">
-        <v>243206328</v>
+        <v>177166640</v>
       </c>
       <c r="J41">
-        <v>3.24</v>
+        <v>3.93</v>
       </c>
       <c r="K41">
-        <v>-2.92</v>
+        <v>-1.24</v>
       </c>
       <c r="L41">
-        <v>-0.27</v>
+        <v>-0.11</v>
       </c>
       <c r="M41">
-        <v>13.27</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>601121</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>8.869999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="E42">
-        <v>8.789999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>9.67</v>
       </c>
       <c r="G42">
-        <v>8.69</v>
+        <v>8.77</v>
       </c>
       <c r="H42">
-        <v>185147</v>
+        <v>471341</v>
       </c>
       <c r="I42">
-        <v>165464992</v>
+        <v>441199420</v>
       </c>
       <c r="J42">
-        <v>3.45</v>
+        <v>10.24</v>
       </c>
       <c r="K42">
-        <v>-2.12</v>
+        <v>5.23</v>
       </c>
       <c r="L42">
-        <v>-0.19</v>
+        <v>0.46</v>
       </c>
       <c r="M42">
-        <v>9.26</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>601121</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D43">
-        <v>8.779999999999999</v>
+        <v>9.06</v>
       </c>
       <c r="E43">
-        <v>8.56</v>
+        <v>8.98</v>
       </c>
       <c r="F43">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="G43">
         <v>8.92</v>
       </c>
-      <c r="G43">
-        <v>8.539999999999999</v>
-      </c>
       <c r="H43">
-        <v>123290</v>
+        <v>265404</v>
       </c>
       <c r="I43">
-        <v>108526441</v>
+        <v>243206328</v>
       </c>
       <c r="J43">
-        <v>4.32</v>
+        <v>3.24</v>
       </c>
       <c r="K43">
-        <v>-2.62</v>
+        <v>-2.92</v>
       </c>
       <c r="L43">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="M43">
-        <v>6.16</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>601121</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D44">
-        <v>8.59</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E44">
-        <v>8.57</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="F44">
-        <v>8.869999999999999</v>
+        <v>9</v>
       </c>
       <c r="G44">
-        <v>8.44</v>
+        <v>8.69</v>
       </c>
       <c r="H44">
-        <v>148445</v>
+        <v>185147</v>
       </c>
       <c r="I44">
-        <v>129482472</v>
+        <v>165464992</v>
       </c>
       <c r="J44">
-        <v>5.02</v>
+        <v>3.45</v>
       </c>
       <c r="K44">
-        <v>0.12</v>
+        <v>-2.12</v>
       </c>
       <c r="L44">
-        <v>0.01</v>
+        <v>-0.19</v>
       </c>
       <c r="M44">
-        <v>7.42</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>601121</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D45">
-        <v>8.57</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="E45">
-        <v>8.300000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="F45">
-        <v>8.57</v>
+        <v>8.92</v>
       </c>
       <c r="G45">
-        <v>8.24</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="H45">
-        <v>120009</v>
+        <v>123290</v>
       </c>
       <c r="I45">
-        <v>101597783</v>
+        <v>108526441</v>
       </c>
       <c r="J45">
-        <v>3.85</v>
+        <v>4.32</v>
       </c>
       <c r="K45">
-        <v>-3.15</v>
+        <v>-2.62</v>
       </c>
       <c r="L45">
-        <v>-0.27</v>
+        <v>-0.23</v>
       </c>
       <c r="M45">
-        <v>6</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>601121</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D46">
-        <v>8.27</v>
+        <v>8.59</v>
       </c>
       <c r="E46">
-        <v>8.4</v>
+        <v>8.57</v>
       </c>
       <c r="F46">
-        <v>8.42</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="G46">
-        <v>8.18</v>
+        <v>8.44</v>
       </c>
       <c r="H46">
-        <v>83727</v>
+        <v>148445</v>
       </c>
       <c r="I46">
-        <v>70789132</v>
+        <v>129482472</v>
       </c>
       <c r="J46">
-        <v>2.89</v>
+        <v>5.02</v>
       </c>
       <c r="K46">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="L46">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="M46">
-        <v>4.19</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>601121</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D47">
-        <v>8.4</v>
+        <v>8.57</v>
       </c>
       <c r="E47">
-        <v>8.23</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F47">
-        <v>8.41</v>
+        <v>8.57</v>
       </c>
       <c r="G47">
-        <v>8.19</v>
+        <v>8.24</v>
       </c>
       <c r="H47">
-        <v>104386</v>
+        <v>120009</v>
       </c>
       <c r="I47">
-        <v>87403458</v>
+        <v>101597783</v>
       </c>
       <c r="J47">
-        <v>2.62</v>
+        <v>3.85</v>
       </c>
       <c r="K47">
-        <v>-2.02</v>
+        <v>-3.15</v>
       </c>
       <c r="L47">
-        <v>-0.17</v>
+        <v>-0.27</v>
       </c>
       <c r="M47">
-        <v>5.22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>601121</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D48">
-        <v>8.19</v>
+        <v>8.27</v>
       </c>
       <c r="E48">
-        <v>8.06</v>
+        <v>8.4</v>
       </c>
       <c r="F48">
-        <v>8.220000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="G48">
-        <v>8.02</v>
+        <v>8.18</v>
       </c>
       <c r="H48">
-        <v>97389</v>
+        <v>83727</v>
       </c>
       <c r="I48">
-        <v>79888019</v>
+        <v>70789132</v>
       </c>
       <c r="J48">
-        <v>2.43</v>
+        <v>2.89</v>
       </c>
       <c r="K48">
-        <v>-2.07</v>
+        <v>1.2</v>
       </c>
       <c r="L48">
-        <v>-0.17</v>
+        <v>0.1</v>
       </c>
       <c r="M48">
-        <v>4.87</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>601121</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D49">
-        <v>8.09</v>
+        <v>8.4</v>
       </c>
       <c r="E49">
-        <v>8.130000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="F49">
-        <v>8.16</v>
+        <v>8.41</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>8.19</v>
       </c>
       <c r="H49">
-        <v>88447</v>
+        <v>104386</v>
       </c>
       <c r="I49">
-        <v>72461835</v>
+        <v>87403458</v>
       </c>
       <c r="J49">
-        <v>1.99</v>
+        <v>2.62</v>
       </c>
       <c r="K49">
-        <v>0.87</v>
+        <v>-2.02</v>
       </c>
       <c r="L49">
-        <v>0.07000000000000001</v>
+        <v>-0.17</v>
       </c>
       <c r="M49">
-        <v>4.42</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>601121</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>8.130000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="E50">
-        <v>7.87</v>
+        <v>8.06</v>
       </c>
       <c r="F50">
-        <v>8.130000000000001</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="G50">
-        <v>7.86</v>
+        <v>8.02</v>
       </c>
       <c r="H50">
-        <v>125416</v>
+        <v>97389</v>
       </c>
       <c r="I50">
-        <v>101229019</v>
+        <v>79888019</v>
       </c>
       <c r="J50">
-        <v>3.32</v>
+        <v>2.43</v>
       </c>
       <c r="K50">
-        <v>-3.2</v>
+        <v>-2.07</v>
       </c>
       <c r="L50">
-        <v>-0.26</v>
+        <v>-0.17</v>
       </c>
       <c r="M50">
-        <v>6.27</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>601121</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D51">
-        <v>7.87</v>
+        <v>8.09</v>
       </c>
       <c r="E51">
-        <v>7.84</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F51">
-        <v>7.93</v>
+        <v>8.16</v>
       </c>
       <c r="G51">
-        <v>7.78</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>85251</v>
+        <v>88447</v>
       </c>
       <c r="I51">
-        <v>68277290</v>
+        <v>72461835</v>
       </c>
       <c r="J51">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="K51">
-        <v>-0.38</v>
+        <v>0.87</v>
       </c>
       <c r="L51">
-        <v>-0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M51">
-        <v>4.26</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>601121</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>7.85</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E52">
-        <v>7.92</v>
+        <v>7.87</v>
       </c>
       <c r="F52">
-        <v>7.92</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G52">
-        <v>7.77</v>
+        <v>7.86</v>
       </c>
       <c r="H52">
-        <v>85250</v>
+        <v>125416</v>
       </c>
       <c r="I52">
-        <v>67918332</v>
+        <v>101229019</v>
       </c>
       <c r="J52">
-        <v>1.91</v>
+        <v>3.32</v>
       </c>
       <c r="K52">
-        <v>1.02</v>
+        <v>-3.2</v>
       </c>
       <c r="L52">
-        <v>0.08</v>
+        <v>-0.26</v>
       </c>
       <c r="M52">
-        <v>4.26</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>601121</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>7.87</v>
       </c>
       <c r="E53">
         <v>7.84</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>7.93</v>
       </c>
       <c r="G53">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="H53">
-        <v>101848</v>
+        <v>85251</v>
       </c>
       <c r="I53">
-        <v>81194900</v>
+        <v>68277290</v>
       </c>
       <c r="J53">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="K53">
-        <v>-1.01</v>
+        <v>-0.38</v>
       </c>
       <c r="L53">
-        <v>-0.08</v>
+        <v>-0.03</v>
       </c>
       <c r="M53">
-        <v>5.09</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>601121</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D54">
-        <v>7.82</v>
+        <v>7.85</v>
       </c>
       <c r="E54">
-        <v>7.75</v>
+        <v>7.92</v>
       </c>
       <c r="F54">
-        <v>7.85</v>
+        <v>7.92</v>
       </c>
       <c r="G54">
-        <v>7.72</v>
+        <v>7.77</v>
       </c>
       <c r="H54">
-        <v>68227</v>
+        <v>85250</v>
       </c>
       <c r="I54">
-        <v>53925107</v>
+        <v>67918332</v>
       </c>
       <c r="J54">
-        <v>1.66</v>
+        <v>1.91</v>
       </c>
       <c r="K54">
-        <v>-1.15</v>
+        <v>1.02</v>
       </c>
       <c r="L54">
-        <v>-0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M54">
-        <v>3.41</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>601121</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>7.84</v>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
         <v>7.77</v>
       </c>
-      <c r="E55">
-        <v>7.79</v>
-      </c>
-      <c r="F55">
-        <v>7.84</v>
-      </c>
-      <c r="G55">
-        <v>7.72</v>
-      </c>
       <c r="H55">
-        <v>82289</v>
+        <v>101848</v>
       </c>
       <c r="I55">
-        <v>65035685</v>
+        <v>81194900</v>
       </c>
       <c r="J55">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="K55">
-        <v>0.52</v>
+        <v>-1.01</v>
       </c>
       <c r="L55">
-        <v>0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="M55">
-        <v>4.11</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>601121</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D56">
+        <v>7.82</v>
+      </c>
+      <c r="E56">
         <v>7.75</v>
       </c>
-      <c r="E56">
-        <v>7.74</v>
-      </c>
       <c r="F56">
-        <v>7.78</v>
+        <v>7.85</v>
       </c>
       <c r="G56">
-        <v>7.65</v>
+        <v>7.72</v>
       </c>
       <c r="H56">
-        <v>84565</v>
+        <v>68227</v>
       </c>
       <c r="I56">
-        <v>66148678</v>
+        <v>53925107</v>
       </c>
       <c r="J56">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="K56">
-        <v>-0.64</v>
+        <v>-1.15</v>
       </c>
       <c r="L56">
-        <v>-0.05</v>
+        <v>-0.09</v>
       </c>
       <c r="M56">
-        <v>4.23</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>601121</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D57">
+        <v>7.77</v>
+      </c>
+      <c r="E57">
+        <v>7.79</v>
+      </c>
+      <c r="F57">
+        <v>7.84</v>
+      </c>
+      <c r="G57">
         <v>7.72</v>
       </c>
-      <c r="E57">
-        <v>7.93</v>
-      </c>
-      <c r="F57">
-        <v>7.95</v>
-      </c>
-      <c r="G57">
-        <v>7.69</v>
-      </c>
       <c r="H57">
-        <v>104682</v>
+        <v>82289</v>
       </c>
       <c r="I57">
-        <v>83641091</v>
+        <v>65035685</v>
       </c>
       <c r="J57">
-        <v>3.36</v>
+        <v>1.55</v>
       </c>
       <c r="K57">
-        <v>2.45</v>
+        <v>0.52</v>
       </c>
       <c r="L57">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="M57">
-        <v>5.23</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>601121</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D58">
-        <v>7.95</v>
+        <v>7.75</v>
       </c>
       <c r="E58">
-        <v>7.99</v>
+        <v>7.74</v>
       </c>
       <c r="F58">
-        <v>8</v>
+        <v>7.78</v>
       </c>
       <c r="G58">
-        <v>7.89</v>
+        <v>7.65</v>
       </c>
       <c r="H58">
-        <v>87820</v>
+        <v>84565</v>
       </c>
       <c r="I58">
-        <v>70986589</v>
+        <v>66148678</v>
       </c>
       <c r="J58">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="K58">
-        <v>0.76</v>
+        <v>-0.64</v>
       </c>
       <c r="L58">
-        <v>0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="M58">
-        <v>4.39</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>601121</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D59">
-        <v>7.99</v>
+        <v>7.72</v>
       </c>
       <c r="E59">
-        <v>7.94</v>
+        <v>7.93</v>
       </c>
       <c r="F59">
-        <v>7.99</v>
+        <v>7.95</v>
       </c>
       <c r="G59">
-        <v>7.88</v>
+        <v>7.69</v>
       </c>
       <c r="H59">
-        <v>54098</v>
+        <v>104682</v>
       </c>
       <c r="I59">
-        <v>43563800</v>
+        <v>83641091</v>
       </c>
       <c r="J59">
-        <v>1.38</v>
+        <v>3.36</v>
       </c>
       <c r="K59">
-        <v>-0.63</v>
+        <v>2.45</v>
       </c>
       <c r="L59">
-        <v>-0.05</v>
+        <v>0.19</v>
       </c>
       <c r="M59">
-        <v>2.7</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>601121</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D60">
-        <v>7.97</v>
+        <v>7.95</v>
       </c>
       <c r="E60">
-        <v>7.81</v>
+        <v>7.99</v>
       </c>
       <c r="F60">
-        <v>8.08</v>
+        <v>8</v>
       </c>
       <c r="G60">
-        <v>7.8</v>
+        <v>7.89</v>
       </c>
       <c r="H60">
-        <v>112390</v>
+        <v>87820</v>
       </c>
       <c r="I60">
-        <v>90801859</v>
+        <v>70986589</v>
       </c>
       <c r="J60">
-        <v>3.53</v>
+        <v>1.39</v>
       </c>
       <c r="K60">
-        <v>-1.64</v>
+        <v>0.76</v>
       </c>
       <c r="L60">
-        <v>-0.13</v>
+        <v>0.06</v>
       </c>
       <c r="M60">
-        <v>5.62</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>601121</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D61">
-        <v>7.78</v>
+        <v>7.99</v>
       </c>
       <c r="E61">
-        <v>7.78</v>
+        <v>7.94</v>
       </c>
       <c r="F61">
-        <v>7.86</v>
+        <v>7.99</v>
       </c>
       <c r="G61">
-        <v>7.75</v>
+        <v>7.88</v>
       </c>
       <c r="H61">
-        <v>57667</v>
+        <v>54098</v>
       </c>
       <c r="I61">
-        <v>45743329</v>
+        <v>43563800</v>
       </c>
       <c r="J61">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="K61">
-        <v>-0.38</v>
+        <v>-0.63</v>
       </c>
       <c r="L61">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="M61">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>601121</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D62">
-        <v>7.78</v>
+        <v>7.97</v>
       </c>
       <c r="E62">
-        <v>7.91</v>
+        <v>7.81</v>
       </c>
       <c r="F62">
-        <v>7.91</v>
+        <v>8.08</v>
       </c>
       <c r="G62">
-        <v>7.76</v>
+        <v>7.8</v>
       </c>
       <c r="H62">
-        <v>71555</v>
+        <v>112390</v>
       </c>
       <c r="I62">
-        <v>57015057</v>
+        <v>90801859</v>
       </c>
       <c r="J62">
-        <v>1.93</v>
+        <v>3.53</v>
       </c>
       <c r="K62">
-        <v>1.67</v>
+        <v>-1.64</v>
       </c>
       <c r="L62">
-        <v>0.13</v>
+        <v>-0.13</v>
       </c>
       <c r="M62">
-        <v>3.58</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>601121</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D63">
-        <v>7.95</v>
+        <v>7.78</v>
       </c>
       <c r="E63">
-        <v>7.83</v>
+        <v>7.78</v>
       </c>
       <c r="F63">
-        <v>7.98</v>
+        <v>7.86</v>
       </c>
       <c r="G63">
-        <v>7.79</v>
+        <v>7.75</v>
       </c>
       <c r="H63">
-        <v>80474</v>
+        <v>57667</v>
       </c>
       <c r="I63">
-        <v>64153608</v>
+        <v>45743329</v>
       </c>
       <c r="J63">
-        <v>2.4</v>
+        <v>1.41</v>
       </c>
       <c r="K63">
-        <v>-1.01</v>
+        <v>-0.38</v>
       </c>
       <c r="L63">
-        <v>-0.08</v>
+        <v>-0.03</v>
       </c>
       <c r="M63">
-        <v>4.02</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>601121</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D64">
-        <v>7.77</v>
+        <v>7.78</v>
       </c>
       <c r="E64">
-        <v>7.82</v>
+        <v>7.91</v>
       </c>
       <c r="F64">
-        <v>7.82</v>
+        <v>7.91</v>
       </c>
       <c r="G64">
-        <v>7.73</v>
+        <v>7.76</v>
       </c>
       <c r="H64">
-        <v>63576</v>
+        <v>71555</v>
       </c>
       <c r="I64">
-        <v>50237721</v>
+        <v>57015057</v>
       </c>
       <c r="J64">
-        <v>1.15</v>
+        <v>1.93</v>
       </c>
       <c r="K64">
-        <v>-0.13</v>
+        <v>1.67</v>
       </c>
       <c r="L64">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
       <c r="M64">
-        <v>3.18</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>601121</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D65">
-        <v>7.82</v>
+        <v>7.95</v>
       </c>
       <c r="E65">
-        <v>7.82</v>
+        <v>7.83</v>
       </c>
       <c r="F65">
-        <v>7.83</v>
+        <v>7.98</v>
       </c>
       <c r="G65">
-        <v>7.78</v>
+        <v>7.79</v>
       </c>
       <c r="H65">
-        <v>36745</v>
+        <v>80474</v>
       </c>
       <c r="I65">
-        <v>29148220</v>
+        <v>64153608</v>
       </c>
       <c r="J65">
-        <v>0.64</v>
+        <v>2.4</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>-1.01</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="M65">
-        <v>1.84</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>601121</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D66">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="E66">
-        <v>7.7</v>
+        <v>7.82</v>
       </c>
       <c r="F66">
-        <v>7.84</v>
+        <v>7.82</v>
       </c>
       <c r="G66">
-        <v>7.7</v>
+        <v>7.73</v>
       </c>
       <c r="H66">
-        <v>75912</v>
+        <v>63576</v>
       </c>
       <c r="I66">
-        <v>59935267</v>
+        <v>50237721</v>
       </c>
       <c r="J66">
-        <v>1.79</v>
+        <v>1.15</v>
       </c>
       <c r="K66">
-        <v>-1.53</v>
+        <v>-0.13</v>
       </c>
       <c r="L66">
-        <v>-0.12</v>
+        <v>-0.01</v>
       </c>
       <c r="M66">
-        <v>3.8</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>601121</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D67">
-        <v>7.72</v>
+        <v>7.82</v>
       </c>
       <c r="E67">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="F67">
-        <v>7.75</v>
+        <v>7.83</v>
       </c>
       <c r="G67">
-        <v>7.65</v>
+        <v>7.78</v>
       </c>
       <c r="H67">
-        <v>66401</v>
+        <v>36745</v>
       </c>
       <c r="I67">
-        <v>51934908</v>
+        <v>29148220</v>
       </c>
       <c r="J67">
-        <v>1.3</v>
+        <v>0.64</v>
       </c>
       <c r="K67">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>3.32</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>601121</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D68">
-        <v>7.71</v>
+        <v>7.8</v>
       </c>
       <c r="E68">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="F68">
-        <v>7.78</v>
+        <v>7.84</v>
       </c>
       <c r="G68">
-        <v>7.71</v>
+        <v>7.7</v>
       </c>
       <c r="H68">
-        <v>44893</v>
+        <v>75912</v>
       </c>
       <c r="I68">
-        <v>35400273</v>
+        <v>59935267</v>
       </c>
       <c r="J68">
-        <v>0.9</v>
+        <v>1.79</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>-1.53</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="M68">
-        <v>2.24</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>601121</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D69">
+        <v>7.72</v>
+      </c>
+      <c r="E69">
         <v>7.75</v>
       </c>
-      <c r="E69">
-        <v>7.68</v>
-      </c>
       <c r="F69">
-        <v>7.76</v>
+        <v>7.75</v>
       </c>
       <c r="G69">
-        <v>7.68</v>
+        <v>7.65</v>
       </c>
       <c r="H69">
-        <v>41753</v>
+        <v>66401</v>
       </c>
       <c r="I69">
-        <v>32693747</v>
+        <v>51934908</v>
       </c>
       <c r="J69">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="K69">
-        <v>-0.9</v>
+        <v>0.65</v>
       </c>
       <c r="L69">
-        <v>-0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="M69">
-        <v>2.09</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B70">
+        <v>601121</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D70">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="E70">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="F70">
-        <v>7.7</v>
+        <v>7.78</v>
       </c>
       <c r="G70">
-        <v>7.49</v>
+        <v>7.71</v>
       </c>
       <c r="H70">
-        <v>82684</v>
+        <v>44893</v>
       </c>
       <c r="I70">
-        <v>63800186</v>
+        <v>35400273</v>
       </c>
       <c r="J70">
-        <v>2.73</v>
+        <v>0.9</v>
       </c>
       <c r="K70">
-        <v>-2.34</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>4.13</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>601121</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D71">
-        <v>7.54</v>
+        <v>7.75</v>
       </c>
       <c r="E71">
-        <v>7.38</v>
+        <v>7.68</v>
       </c>
       <c r="F71">
-        <v>7.54</v>
+        <v>7.76</v>
       </c>
       <c r="G71">
-        <v>7.38</v>
+        <v>7.68</v>
       </c>
       <c r="H71">
-        <v>50391</v>
+        <v>41753</v>
       </c>
       <c r="I71">
-        <v>38130309</v>
+        <v>32693747</v>
       </c>
       <c r="J71">
-        <v>2.13</v>
+        <v>1.03</v>
       </c>
       <c r="K71">
-        <v>-1.6</v>
+        <v>-0.9</v>
       </c>
       <c r="L71">
-        <v>-0.12</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M71">
-        <v>2.52</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>601121</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D72">
-        <v>7.39</v>
+        <v>7.68</v>
       </c>
       <c r="E72">
-        <v>7.27</v>
+        <v>7.5</v>
       </c>
       <c r="F72">
-        <v>7.41</v>
+        <v>7.7</v>
       </c>
       <c r="G72">
-        <v>7.25</v>
+        <v>7.49</v>
       </c>
       <c r="H72">
-        <v>54841</v>
+        <v>82684</v>
       </c>
       <c r="I72">
-        <v>40920472</v>
+        <v>63800186</v>
       </c>
       <c r="J72">
-        <v>2.17</v>
+        <v>2.73</v>
       </c>
       <c r="K72">
-        <v>-1.49</v>
+        <v>-2.34</v>
       </c>
       <c r="L72">
-        <v>-0.11</v>
+        <v>-0.18</v>
       </c>
       <c r="M72">
-        <v>2.74</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>601121</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D73">
-        <v>7.32</v>
+        <v>7.54</v>
       </c>
       <c r="E73">
-        <v>7.46</v>
+        <v>7.38</v>
       </c>
       <c r="F73">
-        <v>7.49</v>
+        <v>7.54</v>
       </c>
       <c r="G73">
-        <v>7.31</v>
+        <v>7.38</v>
       </c>
       <c r="H73">
-        <v>45770</v>
+        <v>50391</v>
       </c>
       <c r="I73">
-        <v>34496120</v>
+        <v>38130309</v>
       </c>
       <c r="J73">
-        <v>2.48</v>
+        <v>2.13</v>
       </c>
       <c r="K73">
-        <v>2.61</v>
+        <v>-1.6</v>
       </c>
       <c r="L73">
-        <v>0.19</v>
+        <v>-0.12</v>
       </c>
       <c r="M73">
-        <v>2.29</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B74">
+        <v>601121</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D74">
-        <v>7.42</v>
+        <v>7.39</v>
       </c>
       <c r="E74">
-        <v>7.51</v>
+        <v>7.27</v>
       </c>
       <c r="F74">
-        <v>7.51</v>
+        <v>7.41</v>
       </c>
       <c r="G74">
-        <v>7.27</v>
+        <v>7.25</v>
       </c>
       <c r="H74">
-        <v>66716</v>
+        <v>54841</v>
       </c>
       <c r="I74">
-        <v>50315654</v>
+        <v>40920472</v>
       </c>
       <c r="J74">
-        <v>3.22</v>
+        <v>2.17</v>
       </c>
       <c r="K74">
-        <v>0.67</v>
+        <v>-1.49</v>
       </c>
       <c r="L74">
-        <v>0.05</v>
+        <v>-0.11</v>
       </c>
       <c r="M74">
-        <v>3.34</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B75">
+        <v>601121</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D75">
+        <v>7.32</v>
+      </c>
+      <c r="E75">
+        <v>7.46</v>
+      </c>
+      <c r="F75">
         <v>7.49</v>
       </c>
-      <c r="E75">
-        <v>7.43</v>
-      </c>
-      <c r="F75">
-        <v>7.5</v>
-      </c>
       <c r="G75">
-        <v>7.42</v>
+        <v>7.31</v>
       </c>
       <c r="H75">
-        <v>35865</v>
+        <v>45770</v>
       </c>
       <c r="I75">
-        <v>27218186</v>
+        <v>34496120</v>
       </c>
       <c r="J75">
-        <v>1.07</v>
+        <v>2.48</v>
       </c>
       <c r="K75">
-        <v>-1.07</v>
+        <v>2.61</v>
       </c>
       <c r="L75">
-        <v>-0.08</v>
+        <v>0.19</v>
       </c>
       <c r="M75">
-        <v>1.79</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>601121</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D76">
-        <v>7.46</v>
+        <v>7.42</v>
       </c>
       <c r="E76">
         <v>7.51</v>
       </c>
       <c r="F76">
-        <v>7.54</v>
+        <v>7.51</v>
       </c>
       <c r="G76">
-        <v>7.43</v>
+        <v>7.27</v>
       </c>
       <c r="H76">
-        <v>32713</v>
+        <v>66716</v>
       </c>
       <c r="I76">
-        <v>24978098</v>
+        <v>50315654</v>
       </c>
       <c r="J76">
-        <v>1.48</v>
+        <v>3.22</v>
       </c>
       <c r="K76">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="L76">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M76">
-        <v>1.64</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B77">
+        <v>601121</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D77">
-        <v>7.48</v>
+        <v>7.49</v>
       </c>
       <c r="E77">
-        <v>7.55</v>
+        <v>7.43</v>
       </c>
       <c r="F77">
-        <v>7.58</v>
+        <v>7.5</v>
       </c>
       <c r="G77">
-        <v>7.48</v>
+        <v>7.42</v>
       </c>
       <c r="H77">
-        <v>41488</v>
+        <v>35865</v>
       </c>
       <c r="I77">
-        <v>31819092</v>
+        <v>27218186</v>
       </c>
       <c r="J77">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="K77">
-        <v>0.53</v>
+        <v>-1.07</v>
       </c>
       <c r="L77">
-        <v>0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="M77">
-        <v>2.07</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B78">
+        <v>601121</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D78">
-        <v>7.57</v>
+        <v>7.46</v>
       </c>
       <c r="E78">
-        <v>7.52</v>
+        <v>7.51</v>
       </c>
       <c r="F78">
-        <v>7.6</v>
+        <v>7.54</v>
       </c>
       <c r="G78">
-        <v>7.47</v>
+        <v>7.43</v>
       </c>
       <c r="H78">
-        <v>37613</v>
+        <v>32713</v>
       </c>
       <c r="I78">
-        <v>28783576</v>
+        <v>24978098</v>
       </c>
       <c r="J78">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="K78">
-        <v>-0.4</v>
+        <v>1.08</v>
       </c>
       <c r="L78">
-        <v>-0.03</v>
+        <v>0.08</v>
       </c>
       <c r="M78">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>601121</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D79">
-        <v>7.53</v>
+        <v>7.48</v>
       </c>
       <c r="E79">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="F79">
-        <v>7.72</v>
+        <v>7.58</v>
       </c>
       <c r="G79">
         <v>7.48</v>
       </c>
       <c r="H79">
-        <v>79516</v>
+        <v>41488</v>
       </c>
       <c r="I79">
-        <v>61559689</v>
+        <v>31819092</v>
       </c>
       <c r="J79">
-        <v>3.19</v>
+        <v>1.33</v>
       </c>
       <c r="K79">
-        <v>1.33</v>
+        <v>0.53</v>
       </c>
       <c r="L79">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="M79">
-        <v>3.98</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B80">
+        <v>601121</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D80">
-        <v>7.66</v>
+        <v>7.57</v>
       </c>
       <c r="E80">
-        <v>7.49</v>
+        <v>7.52</v>
       </c>
       <c r="F80">
-        <v>7.67</v>
+        <v>7.6</v>
       </c>
       <c r="G80">
         <v>7.47</v>
       </c>
       <c r="H80">
-        <v>60257</v>
+        <v>37613</v>
       </c>
       <c r="I80">
-        <v>46195311</v>
+        <v>28783576</v>
       </c>
       <c r="J80">
-        <v>2.62</v>
+        <v>1.72</v>
       </c>
       <c r="K80">
-        <v>-1.71</v>
+        <v>-0.4</v>
       </c>
       <c r="L80">
-        <v>-0.13</v>
+        <v>-0.03</v>
       </c>
       <c r="M80">
-        <v>3.01</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B81">
+        <v>601121</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D81">
-        <v>7.49</v>
+        <v>7.53</v>
       </c>
       <c r="E81">
-        <v>7.47</v>
+        <v>7.62</v>
       </c>
       <c r="F81">
-        <v>7.56</v>
+        <v>7.72</v>
       </c>
       <c r="G81">
-        <v>7.42</v>
+        <v>7.48</v>
       </c>
       <c r="H81">
-        <v>43620</v>
+        <v>79516</v>
       </c>
       <c r="I81">
-        <v>33189214</v>
+        <v>61559689</v>
       </c>
       <c r="J81">
-        <v>1.87</v>
+        <v>3.19</v>
       </c>
       <c r="K81">
-        <v>-0.27</v>
+        <v>1.33</v>
       </c>
       <c r="L81">
-        <v>-0.02</v>
+        <v>0.1</v>
       </c>
       <c r="M81">
-        <v>2.18</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B82">
+        <v>601121</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D82">
-        <v>7.47</v>
+        <v>7.66</v>
       </c>
       <c r="E82">
         <v>7.49</v>
       </c>
       <c r="F82">
-        <v>7.53</v>
+        <v>7.67</v>
       </c>
       <c r="G82">
-        <v>7.46</v>
+        <v>7.47</v>
       </c>
       <c r="H82">
-        <v>23614</v>
+        <v>60257</v>
       </c>
       <c r="I82">
-        <v>17970547</v>
+        <v>46195311</v>
       </c>
       <c r="J82">
-        <v>0.9399999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="K82">
-        <v>0.27</v>
+        <v>-1.71</v>
       </c>
       <c r="L82">
-        <v>0.02</v>
+        <v>-0.13</v>
       </c>
       <c r="M82">
-        <v>1.18</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B83">
+        <v>601121</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D83">
-        <v>7.52</v>
+        <v>7.49</v>
       </c>
       <c r="E83">
-        <v>7.55</v>
+        <v>7.47</v>
       </c>
       <c r="F83">
         <v>7.56</v>
       </c>
       <c r="G83">
-        <v>7.38</v>
+        <v>7.42</v>
       </c>
       <c r="H83">
-        <v>52437</v>
+        <v>43620</v>
       </c>
       <c r="I83">
-        <v>39873465</v>
+        <v>33189214</v>
       </c>
       <c r="J83">
-        <v>2.4</v>
+        <v>1.87</v>
       </c>
       <c r="K83">
-        <v>0.8</v>
+        <v>-0.27</v>
       </c>
       <c r="L83">
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="M83">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B84">
+        <v>601121</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D84">
+        <v>7.47</v>
+      </c>
+      <c r="E84">
+        <v>7.49</v>
+      </c>
+      <c r="F84">
         <v>7.53</v>
-      </c>
-      <c r="E84">
-        <v>7.5</v>
-      </c>
-      <c r="F84">
-        <v>7.69</v>
       </c>
       <c r="G84">
         <v>7.46</v>
       </c>
       <c r="H84">
-        <v>71087</v>
+        <v>23614</v>
       </c>
       <c r="I84">
-        <v>54688466</v>
+        <v>17970547</v>
       </c>
       <c r="J84">
-        <v>3.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K84">
-        <v>-0.66</v>
+        <v>0.27</v>
       </c>
       <c r="L84">
-        <v>-0.05</v>
+        <v>0.02</v>
       </c>
       <c r="M84">
-        <v>3.55</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B85">
+        <v>601121</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D85">
-        <v>7.53</v>
+        <v>7.52</v>
       </c>
       <c r="E85">
-        <v>7.59</v>
+        <v>7.55</v>
       </c>
       <c r="F85">
-        <v>7.62</v>
+        <v>7.56</v>
       </c>
       <c r="G85">
-        <v>7.52</v>
+        <v>7.38</v>
       </c>
       <c r="H85">
-        <v>54220</v>
+        <v>52437</v>
       </c>
       <c r="I85">
-        <v>41760583</v>
+        <v>39873465</v>
       </c>
       <c r="J85">
-        <v>1.33</v>
+        <v>2.4</v>
       </c>
       <c r="K85">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="L85">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M85">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>601121</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D86">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="E86">
-        <v>7.55</v>
+        <v>7.5</v>
       </c>
       <c r="F86">
-        <v>7.63</v>
+        <v>7.69</v>
       </c>
       <c r="G86">
-        <v>7.54</v>
+        <v>7.46</v>
       </c>
       <c r="H86">
-        <v>47049</v>
+        <v>71087</v>
       </c>
       <c r="I86">
-        <v>35650779</v>
+        <v>54688466</v>
       </c>
       <c r="J86">
-        <v>1.19</v>
+        <v>3.05</v>
       </c>
       <c r="K86">
-        <v>-0.53</v>
+        <v>-0.66</v>
       </c>
       <c r="L86">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="M86">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B87">
+        <v>601121</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D87">
-        <v>7.55</v>
+        <v>7.53</v>
       </c>
       <c r="E87">
-        <v>7.61</v>
+        <v>7.59</v>
       </c>
       <c r="F87">
-        <v>7.68</v>
+        <v>7.62</v>
       </c>
       <c r="G87">
-        <v>7.43</v>
+        <v>7.52</v>
       </c>
       <c r="H87">
-        <v>50339</v>
+        <v>54220</v>
       </c>
       <c r="I87">
-        <v>38050802</v>
+        <v>41760583</v>
       </c>
       <c r="J87">
-        <v>3.31</v>
+        <v>1.33</v>
       </c>
       <c r="K87">
-        <v>0.79</v>
+        <v>1.2</v>
       </c>
       <c r="L87">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M87">
-        <v>2.52</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>601121</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D88">
-        <v>7.6</v>
+        <v>7.63</v>
       </c>
       <c r="E88">
-        <v>7.61</v>
+        <v>7.55</v>
       </c>
       <c r="F88">
-        <v>7.66</v>
+        <v>7.63</v>
       </c>
       <c r="G88">
-        <v>7.57</v>
+        <v>7.54</v>
       </c>
       <c r="H88">
-        <v>28356</v>
+        <v>47049</v>
       </c>
       <c r="I88">
-        <v>21585210</v>
+        <v>35650779</v>
       </c>
       <c r="J88">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="M88">
-        <v>1.42</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B89">
+        <v>601121</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D89">
-        <v>7.62</v>
+        <v>7.55</v>
       </c>
       <c r="E89">
-        <v>7.6</v>
+        <v>7.61</v>
       </c>
       <c r="F89">
-        <v>7.62</v>
+        <v>7.68</v>
       </c>
       <c r="G89">
-        <v>7.57</v>
+        <v>7.43</v>
       </c>
       <c r="H89">
-        <v>22363</v>
+        <v>50339</v>
       </c>
       <c r="I89">
-        <v>16989688</v>
+        <v>38050802</v>
       </c>
       <c r="J89">
-        <v>0.66</v>
+        <v>3.31</v>
       </c>
       <c r="K89">
-        <v>-0.13</v>
+        <v>0.79</v>
       </c>
       <c r="L89">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="M89">
-        <v>1.12</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B90">
+        <v>601121</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D90">
+        <v>7.6</v>
+      </c>
+      <c r="E90">
         <v>7.61</v>
-      </c>
-      <c r="E90">
-        <v>7.54</v>
       </c>
       <c r="F90">
         <v>7.66</v>
       </c>
       <c r="G90">
-        <v>7.54</v>
+        <v>7.57</v>
       </c>
       <c r="H90">
-        <v>37068</v>
+        <v>28356</v>
       </c>
       <c r="I90">
-        <v>28211016</v>
+        <v>21585210</v>
       </c>
       <c r="J90">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="K90">
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B91">
+        <v>601121</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D91">
-        <v>7.54</v>
+        <v>7.62</v>
       </c>
       <c r="E91">
-        <v>7.56</v>
+        <v>7.6</v>
       </c>
       <c r="F91">
         <v>7.62</v>
       </c>
       <c r="G91">
-        <v>7.52</v>
+        <v>7.57</v>
       </c>
       <c r="H91">
-        <v>24197</v>
+        <v>22363</v>
       </c>
       <c r="I91">
-        <v>18329381</v>
+        <v>16989688</v>
       </c>
       <c r="J91">
-        <v>1.33</v>
+        <v>0.66</v>
       </c>
       <c r="K91">
-        <v>0.27</v>
+        <v>-0.13</v>
       </c>
       <c r="L91">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="M91">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>601121</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D92">
-        <v>7.56</v>
+        <v>7.61</v>
       </c>
       <c r="E92">
-        <v>7.55</v>
+        <v>7.54</v>
       </c>
       <c r="F92">
-        <v>7.58</v>
+        <v>7.66</v>
       </c>
       <c r="G92">
-        <v>7.52</v>
+        <v>7.54</v>
       </c>
       <c r="H92">
-        <v>23278</v>
+        <v>37068</v>
       </c>
       <c r="I92">
-        <v>17558797</v>
+        <v>28211016</v>
       </c>
       <c r="J92">
-        <v>0.79</v>
+        <v>1.58</v>
       </c>
       <c r="K92">
-        <v>-0.13</v>
+        <v>-0.79</v>
       </c>
       <c r="L92">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="M92">
-        <v>1.16</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>601121</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D93">
-        <v>7.58</v>
+        <v>7.54</v>
       </c>
       <c r="E93">
-        <v>7.68</v>
+        <v>7.56</v>
       </c>
       <c r="F93">
-        <v>7.7</v>
+        <v>7.62</v>
       </c>
       <c r="G93">
-        <v>7.58</v>
+        <v>7.52</v>
       </c>
       <c r="H93">
-        <v>79342</v>
+        <v>24197</v>
       </c>
       <c r="I93">
-        <v>60838164</v>
+        <v>18329381</v>
       </c>
       <c r="J93">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="K93">
-        <v>1.72</v>
+        <v>0.27</v>
       </c>
       <c r="L93">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="M93">
-        <v>3.97</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B94">
+        <v>601121</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D94">
-        <v>7.63</v>
+        <v>7.56</v>
       </c>
       <c r="E94">
-        <v>7.81</v>
+        <v>7.55</v>
       </c>
       <c r="F94">
-        <v>7.87</v>
+        <v>7.58</v>
       </c>
       <c r="G94">
-        <v>7.63</v>
+        <v>7.52</v>
       </c>
       <c r="H94">
-        <v>122703</v>
+        <v>23278</v>
       </c>
       <c r="I94">
-        <v>95236167</v>
+        <v>17558797</v>
       </c>
       <c r="J94">
-        <v>3.13</v>
+        <v>0.79</v>
       </c>
       <c r="K94">
-        <v>1.69</v>
+        <v>-0.13</v>
       </c>
       <c r="L94">
-        <v>0.13</v>
+        <v>-0.01</v>
       </c>
       <c r="M94">
-        <v>6.14</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B95">
+        <v>601121</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D95">
-        <v>7.73</v>
+        <v>7.58</v>
       </c>
       <c r="E95">
-        <v>7.8</v>
+        <v>7.68</v>
       </c>
       <c r="F95">
-        <v>8.039999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="G95">
-        <v>7.72</v>
+        <v>7.58</v>
       </c>
       <c r="H95">
-        <v>158284</v>
+        <v>79342</v>
       </c>
       <c r="I95">
-        <v>124157131</v>
+        <v>60838164</v>
       </c>
       <c r="J95">
-        <v>4.1</v>
+        <v>1.59</v>
       </c>
       <c r="K95">
-        <v>-0.13</v>
+        <v>1.72</v>
       </c>
       <c r="L95">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
       <c r="M95">
-        <v>7.91</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B96">
+        <v>601121</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D96">
-        <v>7.73</v>
+        <v>7.63</v>
       </c>
       <c r="E96">
-        <v>7.9</v>
+        <v>7.81</v>
       </c>
       <c r="F96">
-        <v>7.93</v>
+        <v>7.87</v>
       </c>
       <c r="G96">
-        <v>7.65</v>
+        <v>7.63</v>
       </c>
       <c r="H96">
-        <v>160227</v>
+        <v>122703</v>
       </c>
       <c r="I96">
-        <v>125365848</v>
+        <v>95236167</v>
       </c>
       <c r="J96">
-        <v>3.59</v>
+        <v>3.13</v>
       </c>
       <c r="K96">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="L96">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="M96">
-        <v>8.01</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>601121</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D97">
-        <v>7.95</v>
+        <v>7.73</v>
       </c>
       <c r="E97">
-        <v>7.85</v>
+        <v>7.8</v>
       </c>
       <c r="F97">
-        <v>7.95</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="G97">
-        <v>7.84</v>
+        <v>7.72</v>
       </c>
       <c r="H97">
-        <v>107395</v>
+        <v>158284</v>
       </c>
       <c r="I97">
-        <v>84562867</v>
+        <v>124157131</v>
       </c>
       <c r="J97">
-        <v>1.39</v>
+        <v>4.1</v>
       </c>
       <c r="K97">
-        <v>-0.63</v>
+        <v>-0.13</v>
       </c>
       <c r="L97">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="M97">
-        <v>5.37</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B98">
+        <v>601121</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D98">
-        <v>7.86</v>
+        <v>7.73</v>
       </c>
       <c r="E98">
-        <v>8.17</v>
+        <v>7.9</v>
       </c>
       <c r="F98">
-        <v>8.4</v>
+        <v>7.93</v>
       </c>
       <c r="G98">
-        <v>7.82</v>
+        <v>7.65</v>
       </c>
       <c r="H98">
-        <v>317660</v>
+        <v>160227</v>
       </c>
       <c r="I98">
-        <v>258994916</v>
+        <v>125365848</v>
       </c>
       <c r="J98">
-        <v>7.39</v>
+        <v>3.59</v>
       </c>
       <c r="K98">
-        <v>4.08</v>
+        <v>1.28</v>
       </c>
       <c r="L98">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="M98">
-        <v>15.88</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B99">
+        <v>601121</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D99">
-        <v>8.01</v>
+        <v>7.95</v>
       </c>
       <c r="E99">
-        <v>7.96</v>
+        <v>7.85</v>
       </c>
       <c r="F99">
-        <v>8.08</v>
+        <v>7.95</v>
       </c>
       <c r="G99">
-        <v>7.92</v>
+        <v>7.84</v>
       </c>
       <c r="H99">
-        <v>176910</v>
+        <v>107395</v>
       </c>
       <c r="I99">
-        <v>141373824</v>
+        <v>84562867</v>
       </c>
       <c r="J99">
-        <v>1.96</v>
+        <v>1.39</v>
       </c>
       <c r="K99">
-        <v>-2.57</v>
+        <v>-0.63</v>
       </c>
       <c r="L99">
-        <v>-0.21</v>
+        <v>-0.05</v>
       </c>
       <c r="M99">
-        <v>8.85</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B100">
+        <v>601121</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D100">
-        <v>7.91</v>
+        <v>7.86</v>
       </c>
       <c r="E100">
-        <v>7.85</v>
+        <v>8.17</v>
       </c>
       <c r="F100">
-        <v>7.92</v>
+        <v>8.4</v>
       </c>
       <c r="G100">
-        <v>7.81</v>
+        <v>7.82</v>
       </c>
       <c r="H100">
-        <v>86362</v>
+        <v>317660</v>
       </c>
       <c r="I100">
-        <v>67774813</v>
+        <v>258994916</v>
       </c>
       <c r="J100">
-        <v>1.38</v>
+        <v>7.39</v>
       </c>
       <c r="K100">
-        <v>-1.38</v>
+        <v>4.08</v>
       </c>
       <c r="L100">
-        <v>-0.11</v>
+        <v>0.32</v>
       </c>
       <c r="M100">
-        <v>4.32</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B101">
+        <v>601121</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D101">
-        <v>7.83</v>
+        <v>8.01</v>
       </c>
       <c r="E101">
-        <v>7.87</v>
+        <v>7.96</v>
       </c>
       <c r="F101">
-        <v>7.93</v>
+        <v>8.08</v>
       </c>
       <c r="G101">
-        <v>7.79</v>
+        <v>7.92</v>
       </c>
       <c r="H101">
-        <v>120333</v>
+        <v>176910</v>
       </c>
       <c r="I101">
-        <v>94396697</v>
+        <v>141373824</v>
       </c>
       <c r="J101">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="K101">
-        <v>0.25</v>
+        <v>-2.57</v>
       </c>
       <c r="L101">
-        <v>0.02</v>
+        <v>-0.21</v>
       </c>
       <c r="M101">
-        <v>6.02</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B102">
+        <v>601121</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D102">
-        <v>7.86</v>
+        <v>7.91</v>
       </c>
       <c r="E102">
-        <v>7.72</v>
+        <v>7.85</v>
       </c>
       <c r="F102">
-        <v>7.95</v>
+        <v>7.92</v>
       </c>
       <c r="G102">
-        <v>7.71</v>
+        <v>7.81</v>
       </c>
       <c r="H102">
-        <v>85876</v>
+        <v>86362</v>
       </c>
       <c r="I102">
-        <v>66850336</v>
+        <v>67774813</v>
       </c>
       <c r="J102">
-        <v>3.05</v>
+        <v>1.38</v>
       </c>
       <c r="K102">
-        <v>-1.91</v>
+        <v>-1.38</v>
       </c>
       <c r="L102">
-        <v>-0.15</v>
+        <v>-0.11</v>
       </c>
       <c r="M102">
-        <v>4.29</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B103">
+        <v>601121</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D103">
+        <v>7.83</v>
+      </c>
+      <c r="E103">
+        <v>7.87</v>
+      </c>
+      <c r="F103">
+        <v>7.93</v>
+      </c>
+      <c r="G103">
         <v>7.79</v>
       </c>
-      <c r="E103">
-        <v>7.71</v>
-      </c>
-      <c r="F103">
-        <v>7.87</v>
-      </c>
-      <c r="G103">
-        <v>7.71</v>
-      </c>
       <c r="H103">
-        <v>65648</v>
+        <v>120333</v>
       </c>
       <c r="I103">
-        <v>50948553</v>
+        <v>94396697</v>
       </c>
       <c r="J103">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="K103">
-        <v>-0.13</v>
+        <v>0.25</v>
       </c>
       <c r="L103">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M103">
-        <v>3.28</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B104">
+        <v>601121</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D104">
-        <v>7.68</v>
+        <v>7.86</v>
       </c>
       <c r="E104">
-        <v>7.64</v>
+        <v>7.72</v>
       </c>
       <c r="F104">
-        <v>7.7</v>
+        <v>7.95</v>
       </c>
       <c r="G104">
-        <v>7.61</v>
+        <v>7.71</v>
       </c>
       <c r="H104">
-        <v>46695</v>
+        <v>85876</v>
       </c>
       <c r="I104">
-        <v>35657893</v>
+        <v>66850336</v>
       </c>
       <c r="J104">
-        <v>1.17</v>
+        <v>3.05</v>
       </c>
       <c r="K104">
-        <v>-0.91</v>
+        <v>-1.91</v>
       </c>
       <c r="L104">
-        <v>-0.07000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="M104">
-        <v>2.33</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>601121</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D105">
-        <v>7.62</v>
+        <v>7.79</v>
       </c>
       <c r="E105">
-        <v>7.68</v>
+        <v>7.71</v>
       </c>
       <c r="F105">
+        <v>7.87</v>
+      </c>
+      <c r="G105">
         <v>7.71</v>
       </c>
-      <c r="G105">
-        <v>7.62</v>
-      </c>
       <c r="H105">
-        <v>30727</v>
+        <v>65648</v>
       </c>
       <c r="I105">
-        <v>23555446</v>
+        <v>50948553</v>
       </c>
       <c r="J105">
-        <v>1.18</v>
+        <v>2.07</v>
       </c>
       <c r="K105">
-        <v>0.52</v>
+        <v>-0.13</v>
       </c>
       <c r="L105">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="M105">
-        <v>1.54</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B106">
+        <v>601121</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D106">
-        <v>7.67</v>
+        <v>7.68</v>
       </c>
       <c r="E106">
-        <v>7.54</v>
+        <v>7.64</v>
       </c>
       <c r="F106">
-        <v>7.69</v>
+        <v>7.7</v>
       </c>
       <c r="G106">
-        <v>7.52</v>
+        <v>7.61</v>
       </c>
       <c r="H106">
-        <v>46570</v>
+        <v>46695</v>
       </c>
       <c r="I106">
-        <v>35378166</v>
+        <v>35657893</v>
       </c>
       <c r="J106">
-        <v>2.21</v>
+        <v>1.17</v>
       </c>
       <c r="K106">
-        <v>-1.82</v>
+        <v>-0.91</v>
       </c>
       <c r="L106">
-        <v>-0.14</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M106">
         <v>2.33</v>
@@ -5247,75 +5286,75 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B107">
+        <v>601121</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D107">
-        <v>7.48</v>
+        <v>7.62</v>
       </c>
       <c r="E107">
-        <v>7.7</v>
+        <v>7.68</v>
       </c>
       <c r="F107">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="G107">
-        <v>7.43</v>
+        <v>7.62</v>
       </c>
       <c r="H107">
-        <v>72960</v>
+        <v>30727</v>
       </c>
       <c r="I107">
-        <v>55288238</v>
+        <v>23555446</v>
       </c>
       <c r="J107">
-        <v>3.58</v>
+        <v>1.18</v>
       </c>
       <c r="K107">
-        <v>2.12</v>
+        <v>0.52</v>
       </c>
       <c r="L107">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="M107">
-        <v>3.65</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B108">
+        <v>601121</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D108">
-        <v>7.65</v>
+        <v>7.67</v>
       </c>
       <c r="E108">
-        <v>7.56</v>
+        <v>7.54</v>
       </c>
       <c r="F108">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
       <c r="G108">
         <v>7.52</v>
       </c>
       <c r="H108">
-        <v>42369</v>
+        <v>46570</v>
       </c>
       <c r="I108">
-        <v>32122981</v>
+        <v>35378166</v>
       </c>
       <c r="J108">
-        <v>1.82</v>
+        <v>2.21</v>
       </c>
       <c r="K108">
         <v>-1.82</v>
@@ -5324,2138 +5363,2220 @@
         <v>-0.14</v>
       </c>
       <c r="M108">
-        <v>2.12</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B109">
+        <v>601121</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D109">
-        <v>7.58</v>
+        <v>7.48</v>
       </c>
       <c r="E109">
-        <v>7.52</v>
+        <v>7.7</v>
       </c>
       <c r="F109">
-        <v>7.59</v>
+        <v>7.7</v>
       </c>
       <c r="G109">
-        <v>7.47</v>
+        <v>7.43</v>
       </c>
       <c r="H109">
-        <v>31839</v>
+        <v>72960</v>
       </c>
       <c r="I109">
-        <v>23962370</v>
+        <v>55288238</v>
       </c>
       <c r="J109">
-        <v>1.59</v>
+        <v>3.58</v>
       </c>
       <c r="K109">
-        <v>-0.53</v>
+        <v>2.12</v>
       </c>
       <c r="L109">
-        <v>-0.04</v>
+        <v>0.16</v>
       </c>
       <c r="M109">
-        <v>1.59</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B110">
+        <v>601121</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D110">
-        <v>7.48</v>
+        <v>7.65</v>
       </c>
       <c r="E110">
-        <v>7.57</v>
+        <v>7.56</v>
       </c>
       <c r="F110">
-        <v>7.59</v>
+        <v>7.66</v>
       </c>
       <c r="G110">
-        <v>7.39</v>
+        <v>7.52</v>
       </c>
       <c r="H110">
-        <v>51599</v>
+        <v>42369</v>
       </c>
       <c r="I110">
-        <v>38578520</v>
+        <v>32122981</v>
       </c>
       <c r="J110">
-        <v>2.66</v>
+        <v>1.82</v>
       </c>
       <c r="K110">
-        <v>0.66</v>
+        <v>-1.82</v>
       </c>
       <c r="L110">
-        <v>0.05</v>
+        <v>-0.14</v>
       </c>
       <c r="M110">
-        <v>2.58</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B111">
+        <v>601121</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D111">
-        <v>7.56</v>
+        <v>7.58</v>
       </c>
       <c r="E111">
-        <v>7.65</v>
+        <v>7.52</v>
       </c>
       <c r="F111">
-        <v>7.78</v>
+        <v>7.59</v>
       </c>
       <c r="G111">
-        <v>7.52</v>
+        <v>7.47</v>
       </c>
       <c r="H111">
-        <v>104737</v>
+        <v>31839</v>
       </c>
       <c r="I111">
-        <v>80644416</v>
+        <v>23962370</v>
       </c>
       <c r="J111">
-        <v>3.43</v>
+        <v>1.59</v>
       </c>
       <c r="K111">
-        <v>1.06</v>
+        <v>-0.53</v>
       </c>
       <c r="L111">
-        <v>0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="M111">
-        <v>5.24</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B112">
+        <v>601121</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D112">
-        <v>7.62</v>
+        <v>7.48</v>
       </c>
       <c r="E112">
-        <v>7.77</v>
+        <v>7.57</v>
       </c>
       <c r="F112">
-        <v>7.94</v>
+        <v>7.59</v>
       </c>
       <c r="G112">
-        <v>7.6</v>
+        <v>7.39</v>
       </c>
       <c r="H112">
-        <v>112799</v>
+        <v>51599</v>
       </c>
       <c r="I112">
-        <v>87674956</v>
+        <v>38578520</v>
       </c>
       <c r="J112">
-        <v>4.44</v>
+        <v>2.66</v>
       </c>
       <c r="K112">
-        <v>1.57</v>
+        <v>0.66</v>
       </c>
       <c r="L112">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="M112">
-        <v>5.64</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B113">
+        <v>601121</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D113">
-        <v>7.85</v>
+        <v>7.56</v>
       </c>
       <c r="E113">
-        <v>7.98</v>
+        <v>7.65</v>
       </c>
       <c r="F113">
-        <v>8.050000000000001</v>
+        <v>7.78</v>
       </c>
       <c r="G113">
-        <v>7.71</v>
+        <v>7.52</v>
       </c>
       <c r="H113">
-        <v>280233</v>
+        <v>104737</v>
       </c>
       <c r="I113">
-        <v>222353226</v>
+        <v>80644416</v>
       </c>
       <c r="J113">
-        <v>4.38</v>
+        <v>3.43</v>
       </c>
       <c r="K113">
-        <v>2.7</v>
+        <v>1.06</v>
       </c>
       <c r="L113">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="M113">
-        <v>14.01</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B114">
+        <v>601121</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D114">
-        <v>7.97</v>
+        <v>7.62</v>
       </c>
       <c r="E114">
-        <v>8</v>
+        <v>7.77</v>
       </c>
       <c r="F114">
-        <v>8.26</v>
+        <v>7.94</v>
       </c>
       <c r="G114">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H114">
-        <v>346621</v>
+        <v>112799</v>
       </c>
       <c r="I114">
-        <v>278760318</v>
+        <v>87674956</v>
       </c>
       <c r="J114">
-        <v>5.76</v>
+        <v>4.44</v>
       </c>
       <c r="K114">
-        <v>0.25</v>
+        <v>1.57</v>
       </c>
       <c r="L114">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="M114">
-        <v>17.33</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B115">
+        <v>601121</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D115">
-        <v>8.1</v>
+        <v>7.85</v>
       </c>
       <c r="E115">
-        <v>7.79</v>
+        <v>7.98</v>
       </c>
       <c r="F115">
-        <v>8.140000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G115">
-        <v>7.61</v>
+        <v>7.71</v>
       </c>
       <c r="H115">
-        <v>250805</v>
+        <v>280233</v>
       </c>
       <c r="I115">
-        <v>195103705</v>
+        <v>222353226</v>
       </c>
       <c r="J115">
-        <v>6.63</v>
+        <v>4.38</v>
       </c>
       <c r="K115">
-        <v>-2.63</v>
+        <v>2.7</v>
       </c>
       <c r="L115">
-        <v>-0.21</v>
+        <v>0.21</v>
       </c>
       <c r="M115">
-        <v>12.54</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B116">
+        <v>601121</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D116">
-        <v>7.7</v>
+        <v>7.97</v>
       </c>
       <c r="E116">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="F116">
-        <v>7.71</v>
+        <v>8.26</v>
       </c>
       <c r="G116">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="H116">
-        <v>211750</v>
+        <v>346621</v>
       </c>
       <c r="I116">
-        <v>156640621</v>
+        <v>278760318</v>
       </c>
       <c r="J116">
-        <v>6.55</v>
+        <v>5.76</v>
       </c>
       <c r="K116">
-        <v>-7.57</v>
+        <v>0.25</v>
       </c>
       <c r="L116">
-        <v>-0.59</v>
+        <v>0.02</v>
       </c>
       <c r="M116">
-        <v>10.59</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>13</v>
-      </c>
-      <c r="B117" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B117">
+        <v>601121</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D117">
-        <v>7.55</v>
+        <v>8.1</v>
       </c>
       <c r="E117">
-        <v>7.4</v>
+        <v>7.79</v>
       </c>
       <c r="F117">
-        <v>7.9</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="G117">
-        <v>7.35</v>
+        <v>7.61</v>
       </c>
       <c r="H117">
-        <v>289241</v>
+        <v>250805</v>
       </c>
       <c r="I117">
-        <v>221361394</v>
+        <v>195103705</v>
       </c>
       <c r="J117">
-        <v>7.64</v>
+        <v>6.63</v>
       </c>
       <c r="K117">
-        <v>2.78</v>
+        <v>-2.63</v>
       </c>
       <c r="L117">
-        <v>0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="M117">
-        <v>14.46</v>
+        <v>12.54</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B118">
+        <v>601121</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D118">
-        <v>7.34</v>
+        <v>7.7</v>
       </c>
       <c r="E118">
-        <v>7.76</v>
+        <v>7.2</v>
       </c>
       <c r="F118">
-        <v>7.76</v>
+        <v>7.71</v>
       </c>
       <c r="G118">
-        <v>7.34</v>
+        <v>7.2</v>
       </c>
       <c r="H118">
-        <v>169462</v>
+        <v>211750</v>
       </c>
       <c r="I118">
-        <v>129012749</v>
+        <v>156640621</v>
       </c>
       <c r="J118">
-        <v>5.68</v>
+        <v>6.55</v>
       </c>
       <c r="K118">
-        <v>4.86</v>
+        <v>-7.57</v>
       </c>
       <c r="L118">
-        <v>0.36</v>
+        <v>-0.59</v>
       </c>
       <c r="M118">
-        <v>8.470000000000001</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B119">
+        <v>601121</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D119">
-        <v>7.69</v>
+        <v>7.55</v>
       </c>
       <c r="E119">
-        <v>7.68</v>
+        <v>7.4</v>
       </c>
       <c r="F119">
-        <v>7.91</v>
+        <v>7.9</v>
       </c>
       <c r="G119">
-        <v>7.63</v>
+        <v>7.35</v>
       </c>
       <c r="H119">
-        <v>131222</v>
+        <v>289241</v>
       </c>
       <c r="I119">
-        <v>101930356</v>
+        <v>221361394</v>
       </c>
       <c r="J119">
-        <v>3.61</v>
+        <v>7.64</v>
       </c>
       <c r="K119">
-        <v>-1.03</v>
+        <v>2.78</v>
       </c>
       <c r="L119">
-        <v>-0.08</v>
+        <v>0.2</v>
       </c>
       <c r="M119">
-        <v>6.56</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>13</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B120">
+        <v>601121</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D120">
-        <v>7.7</v>
+        <v>7.34</v>
       </c>
       <c r="E120">
-        <v>7.84</v>
+        <v>7.76</v>
       </c>
       <c r="F120">
-        <v>7.95</v>
+        <v>7.76</v>
       </c>
       <c r="G120">
-        <v>7.7</v>
+        <v>7.34</v>
       </c>
       <c r="H120">
-        <v>147456</v>
+        <v>169462</v>
       </c>
       <c r="I120">
-        <v>115755761</v>
+        <v>129012749</v>
       </c>
       <c r="J120">
-        <v>3.26</v>
+        <v>5.68</v>
       </c>
       <c r="K120">
-        <v>2.08</v>
+        <v>4.86</v>
       </c>
       <c r="L120">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="M120">
-        <v>7.37</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B121">
+        <v>601121</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D121">
-        <v>7.81</v>
+        <v>7.69</v>
       </c>
       <c r="E121">
-        <v>8.08</v>
+        <v>7.68</v>
       </c>
       <c r="F121">
-        <v>8.539999999999999</v>
+        <v>7.91</v>
       </c>
       <c r="G121">
-        <v>7.79</v>
+        <v>7.63</v>
       </c>
       <c r="H121">
-        <v>380327</v>
+        <v>131222</v>
       </c>
       <c r="I121">
-        <v>309487074</v>
+        <v>101930356</v>
       </c>
       <c r="J121">
-        <v>9.57</v>
+        <v>3.61</v>
       </c>
       <c r="K121">
-        <v>3.06</v>
+        <v>-1.03</v>
       </c>
       <c r="L121">
-        <v>0.24</v>
+        <v>-0.08</v>
       </c>
       <c r="M121">
-        <v>19.02</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>601121</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D122">
-        <v>8.02</v>
+        <v>7.7</v>
       </c>
       <c r="E122">
-        <v>8.890000000000001</v>
+        <v>7.84</v>
       </c>
       <c r="F122">
-        <v>8.890000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="G122">
-        <v>8.02</v>
+        <v>7.7</v>
       </c>
       <c r="H122">
-        <v>352460</v>
+        <v>147456</v>
       </c>
       <c r="I122">
-        <v>299843285</v>
+        <v>115755761</v>
       </c>
       <c r="J122">
-        <v>10.77</v>
+        <v>3.26</v>
       </c>
       <c r="K122">
-        <v>10.02</v>
+        <v>2.08</v>
       </c>
       <c r="L122">
-        <v>0.8100000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="M122">
-        <v>17.62</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B123">
+        <v>601121</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D123">
-        <v>8.890000000000001</v>
+        <v>7.81</v>
       </c>
       <c r="E123">
-        <v>8.44</v>
+        <v>8.08</v>
       </c>
       <c r="F123">
-        <v>8.890000000000001</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G123">
-        <v>8.31</v>
+        <v>7.79</v>
       </c>
       <c r="H123">
-        <v>570343</v>
+        <v>380327</v>
       </c>
       <c r="I123">
-        <v>483943491</v>
+        <v>309487074</v>
       </c>
       <c r="J123">
-        <v>6.52</v>
+        <v>9.57</v>
       </c>
       <c r="K123">
-        <v>-5.06</v>
+        <v>3.06</v>
       </c>
       <c r="L123">
-        <v>-0.45</v>
+        <v>0.24</v>
       </c>
       <c r="M123">
-        <v>28.52</v>
+        <v>19.02</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B124">
+        <v>601121</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D124">
-        <v>8.390000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="E124">
-        <v>8.25</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F124">
-        <v>8.460000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G124">
-        <v>8.119999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="H124">
-        <v>322807</v>
+        <v>352460</v>
       </c>
       <c r="I124">
-        <v>265537224</v>
+        <v>299843285</v>
       </c>
       <c r="J124">
-        <v>4.03</v>
+        <v>10.77</v>
       </c>
       <c r="K124">
-        <v>-2.25</v>
+        <v>10.02</v>
       </c>
       <c r="L124">
-        <v>-0.19</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M124">
-        <v>16.14</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B125">
+        <v>601121</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D125">
-        <v>8.199999999999999</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E125">
-        <v>7.9</v>
+        <v>8.44</v>
       </c>
       <c r="F125">
-        <v>8.24</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G125">
-        <v>7.88</v>
+        <v>8.31</v>
       </c>
       <c r="H125">
-        <v>244580</v>
+        <v>570343</v>
       </c>
       <c r="I125">
-        <v>196380736</v>
+        <v>483943491</v>
       </c>
       <c r="J125">
-        <v>4.36</v>
+        <v>6.52</v>
       </c>
       <c r="K125">
-        <v>-4.24</v>
+        <v>-5.06</v>
       </c>
       <c r="L125">
-        <v>-0.35</v>
+        <v>-0.45</v>
       </c>
       <c r="M125">
-        <v>12.23</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>13</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B126">
+        <v>601121</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D126">
-        <v>7.88</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E126">
-        <v>7.63</v>
+        <v>8.25</v>
       </c>
       <c r="F126">
-        <v>7.9</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="G126">
-        <v>7.61</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H126">
-        <v>203619</v>
+        <v>322807</v>
       </c>
       <c r="I126">
-        <v>156712247</v>
+        <v>265537224</v>
       </c>
       <c r="J126">
-        <v>3.67</v>
+        <v>4.03</v>
       </c>
       <c r="K126">
-        <v>-3.42</v>
+        <v>-2.25</v>
       </c>
       <c r="L126">
-        <v>-0.27</v>
+        <v>-0.19</v>
       </c>
       <c r="M126">
-        <v>10.18</v>
+        <v>16.14</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>13</v>
-      </c>
-      <c r="B127" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B127">
+        <v>601121</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D127">
-        <v>7.61</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E127">
-        <v>7.72</v>
+        <v>7.9</v>
       </c>
       <c r="F127">
-        <v>7.78</v>
+        <v>8.24</v>
       </c>
       <c r="G127">
-        <v>7.53</v>
+        <v>7.88</v>
       </c>
       <c r="H127">
-        <v>141934</v>
+        <v>244580</v>
       </c>
       <c r="I127">
-        <v>109120575</v>
+        <v>196380736</v>
       </c>
       <c r="J127">
-        <v>3.28</v>
+        <v>4.36</v>
       </c>
       <c r="K127">
-        <v>1.18</v>
+        <v>-4.24</v>
       </c>
       <c r="L127">
-        <v>0.09</v>
+        <v>-0.35</v>
       </c>
       <c r="M127">
-        <v>7.1</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B128">
+        <v>601121</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D128">
-        <v>7.74</v>
+        <v>7.88</v>
       </c>
       <c r="E128">
-        <v>7.72</v>
+        <v>7.63</v>
       </c>
       <c r="F128">
-        <v>7.78</v>
+        <v>7.9</v>
       </c>
       <c r="G128">
-        <v>7.62</v>
+        <v>7.61</v>
       </c>
       <c r="H128">
-        <v>115717</v>
+        <v>203619</v>
       </c>
       <c r="I128">
-        <v>89264116</v>
+        <v>156712247</v>
       </c>
       <c r="J128">
-        <v>2.07</v>
+        <v>3.67</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>-3.42</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
       <c r="M128">
-        <v>5.79</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B129">
+        <v>601121</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D129">
+        <v>7.61</v>
+      </c>
+      <c r="E129">
         <v>7.72</v>
       </c>
-      <c r="E129">
-        <v>7.79</v>
-      </c>
       <c r="F129">
-        <v>7.95</v>
+        <v>7.78</v>
       </c>
       <c r="G129">
-        <v>7.67</v>
+        <v>7.53</v>
       </c>
       <c r="H129">
-        <v>167076</v>
+        <v>141934</v>
       </c>
       <c r="I129">
-        <v>130290310</v>
+        <v>109120575</v>
       </c>
       <c r="J129">
-        <v>3.63</v>
+        <v>3.28</v>
       </c>
       <c r="K129">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="L129">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M129">
-        <v>8.35</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B130">
+        <v>601121</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D130">
-        <v>7.79</v>
+        <v>7.74</v>
       </c>
       <c r="E130">
-        <v>7.95</v>
+        <v>7.72</v>
       </c>
       <c r="F130">
-        <v>8.029999999999999</v>
+        <v>7.78</v>
       </c>
       <c r="G130">
-        <v>7.73</v>
+        <v>7.62</v>
       </c>
       <c r="H130">
-        <v>231942</v>
+        <v>115717</v>
       </c>
       <c r="I130">
-        <v>183086269</v>
+        <v>89264116</v>
       </c>
       <c r="J130">
-        <v>3.85</v>
+        <v>2.07</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M130">
-        <v>11.6</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B131">
+        <v>601121</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D131">
+        <v>7.72</v>
+      </c>
+      <c r="E131">
+        <v>7.79</v>
+      </c>
+      <c r="F131">
         <v>7.95</v>
       </c>
-      <c r="E131">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="F131">
-        <v>8.199999999999999</v>
-      </c>
       <c r="G131">
-        <v>7.92</v>
+        <v>7.67</v>
       </c>
       <c r="H131">
-        <v>283278</v>
+        <v>167076</v>
       </c>
       <c r="I131">
-        <v>229231438</v>
+        <v>130290310</v>
       </c>
       <c r="J131">
-        <v>3.52</v>
+        <v>3.63</v>
       </c>
       <c r="K131">
-        <v>2.01</v>
+        <v>0.91</v>
       </c>
       <c r="L131">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M131">
-        <v>14.16</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>13</v>
-      </c>
-      <c r="B132" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B132">
+        <v>601121</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D132">
+        <v>7.79</v>
+      </c>
+      <c r="E132">
         <v>7.95</v>
       </c>
-      <c r="E132">
-        <v>8.06</v>
-      </c>
       <c r="F132">
-        <v>8.06</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="G132">
-        <v>7.85</v>
+        <v>7.73</v>
       </c>
       <c r="H132">
-        <v>144053</v>
+        <v>231942</v>
       </c>
       <c r="I132">
-        <v>114830334</v>
+        <v>183086269</v>
       </c>
       <c r="J132">
-        <v>2.59</v>
+        <v>3.85</v>
       </c>
       <c r="K132">
-        <v>-0.62</v>
+        <v>2.05</v>
       </c>
       <c r="L132">
-        <v>-0.05</v>
+        <v>0.16</v>
       </c>
       <c r="M132">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B133">
+        <v>601121</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D133">
-        <v>8.02</v>
+        <v>7.95</v>
       </c>
       <c r="E133">
-        <v>8.16</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F133">
-        <v>8.23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G133">
-        <v>7.99</v>
+        <v>7.92</v>
       </c>
       <c r="H133">
-        <v>180487</v>
+        <v>283278</v>
       </c>
       <c r="I133">
-        <v>146878860</v>
+        <v>229231438</v>
       </c>
       <c r="J133">
-        <v>2.98</v>
+        <v>3.52</v>
       </c>
       <c r="K133">
-        <v>1.24</v>
+        <v>2.01</v>
       </c>
       <c r="L133">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="M133">
-        <v>9.02</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>13</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B134">
+        <v>601121</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D134">
-        <v>8.16</v>
+        <v>7.95</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>8.06</v>
       </c>
       <c r="F134">
-        <v>8.17</v>
+        <v>8.06</v>
       </c>
       <c r="G134">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="H134">
-        <v>128880</v>
+        <v>144053</v>
       </c>
       <c r="I134">
-        <v>103646656</v>
+        <v>114830334</v>
       </c>
       <c r="J134">
-        <v>3.19</v>
+        <v>2.59</v>
       </c>
       <c r="K134">
-        <v>-1.96</v>
+        <v>-0.62</v>
       </c>
       <c r="L134">
-        <v>-0.16</v>
+        <v>-0.05</v>
       </c>
       <c r="M134">
-        <v>6.44</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>13</v>
-      </c>
-      <c r="B135" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B135">
+        <v>601121</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D135">
-        <v>8</v>
+        <v>8.02</v>
       </c>
       <c r="E135">
-        <v>7.9</v>
+        <v>8.16</v>
       </c>
       <c r="F135">
-        <v>8.06</v>
+        <v>8.23</v>
       </c>
       <c r="G135">
-        <v>7.88</v>
+        <v>7.99</v>
       </c>
       <c r="H135">
-        <v>97450</v>
+        <v>180487</v>
       </c>
       <c r="I135">
-        <v>77360672</v>
+        <v>146878860</v>
       </c>
       <c r="J135">
-        <v>2.25</v>
+        <v>2.98</v>
       </c>
       <c r="K135">
-        <v>-1.25</v>
+        <v>1.24</v>
       </c>
       <c r="L135">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="M135">
-        <v>4.87</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B136">
+        <v>601121</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D136">
-        <v>7.89</v>
+        <v>8.16</v>
       </c>
       <c r="E136">
-        <v>7.86</v>
+        <v>8</v>
       </c>
       <c r="F136">
-        <v>7.95</v>
+        <v>8.17</v>
       </c>
       <c r="G136">
-        <v>7.75</v>
+        <v>7.91</v>
       </c>
       <c r="H136">
-        <v>126252</v>
+        <v>128880</v>
       </c>
       <c r="I136">
-        <v>98762779</v>
+        <v>103646656</v>
       </c>
       <c r="J136">
-        <v>2.53</v>
+        <v>3.19</v>
       </c>
       <c r="K136">
-        <v>-0.51</v>
+        <v>-1.96</v>
       </c>
       <c r="L136">
-        <v>-0.04</v>
+        <v>-0.16</v>
       </c>
       <c r="M136">
-        <v>6.31</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>13</v>
-      </c>
-      <c r="B137" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B137">
+        <v>601121</v>
       </c>
       <c r="C137" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D137">
-        <v>7.81</v>
+        <v>8</v>
       </c>
       <c r="E137">
-        <v>7.74</v>
+        <v>7.9</v>
       </c>
       <c r="F137">
+        <v>8.06</v>
+      </c>
+      <c r="G137">
         <v>7.88</v>
       </c>
-      <c r="G137">
-        <v>7.73</v>
-      </c>
       <c r="H137">
-        <v>86876</v>
+        <v>97450</v>
       </c>
       <c r="I137">
-        <v>67676514</v>
+        <v>77360672</v>
       </c>
       <c r="J137">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="K137">
-        <v>-1.53</v>
+        <v>-1.25</v>
       </c>
       <c r="L137">
-        <v>-0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="M137">
-        <v>4.34</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>13</v>
-      </c>
-      <c r="B138" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B138">
+        <v>601121</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D138">
-        <v>7.72</v>
+        <v>7.89</v>
       </c>
       <c r="E138">
-        <v>7.68</v>
+        <v>7.86</v>
       </c>
       <c r="F138">
-        <v>7.76</v>
+        <v>7.95</v>
       </c>
       <c r="G138">
-        <v>7.56</v>
+        <v>7.75</v>
       </c>
       <c r="H138">
-        <v>101304</v>
+        <v>126252</v>
       </c>
       <c r="I138">
-        <v>77625304</v>
+        <v>98762779</v>
       </c>
       <c r="J138">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="K138">
-        <v>-0.78</v>
+        <v>-0.51</v>
       </c>
       <c r="L138">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="M138">
-        <v>5.07</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>13</v>
-      </c>
-      <c r="B139" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B139">
+        <v>601121</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D139">
-        <v>7.67</v>
+        <v>7.81</v>
       </c>
       <c r="E139">
-        <v>7.79</v>
+        <v>7.74</v>
       </c>
       <c r="F139">
-        <v>7.94</v>
+        <v>7.88</v>
       </c>
       <c r="G139">
-        <v>7.65</v>
+        <v>7.73</v>
       </c>
       <c r="H139">
-        <v>108252</v>
+        <v>86876</v>
       </c>
       <c r="I139">
-        <v>84354628</v>
+        <v>67676514</v>
       </c>
       <c r="J139">
-        <v>3.78</v>
+        <v>1.91</v>
       </c>
       <c r="K139">
-        <v>1.43</v>
+        <v>-1.53</v>
       </c>
       <c r="L139">
-        <v>0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="M139">
-        <v>5.41</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B140">
+        <v>601121</v>
       </c>
       <c r="C140" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D140">
-        <v>7.78</v>
+        <v>7.72</v>
       </c>
       <c r="E140">
-        <v>7.95</v>
+        <v>7.68</v>
       </c>
       <c r="F140">
-        <v>7.99</v>
+        <v>7.76</v>
       </c>
       <c r="G140">
-        <v>7.77</v>
+        <v>7.56</v>
       </c>
       <c r="H140">
-        <v>112921</v>
+        <v>101304</v>
       </c>
       <c r="I140">
-        <v>89100931</v>
+        <v>77625304</v>
       </c>
       <c r="J140">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>-0.78</v>
       </c>
       <c r="L140">
-        <v>0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="M140">
-        <v>5.65</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>13</v>
-      </c>
-      <c r="B141" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B141">
+        <v>601121</v>
       </c>
       <c r="C141" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D141">
-        <v>7.91</v>
+        <v>7.67</v>
       </c>
       <c r="E141">
-        <v>7.62</v>
+        <v>7.79</v>
       </c>
       <c r="F141">
-        <v>7.93</v>
+        <v>7.94</v>
       </c>
       <c r="G141">
-        <v>7.62</v>
+        <v>7.65</v>
       </c>
       <c r="H141">
-        <v>144098</v>
+        <v>108252</v>
       </c>
       <c r="I141">
-        <v>111083457</v>
+        <v>84354628</v>
       </c>
       <c r="J141">
-        <v>3.9</v>
+        <v>3.78</v>
       </c>
       <c r="K141">
-        <v>-4.15</v>
+        <v>1.43</v>
       </c>
       <c r="L141">
-        <v>-0.33</v>
+        <v>0.11</v>
       </c>
       <c r="M141">
-        <v>7.2</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>13</v>
-      </c>
-      <c r="B142" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B142">
+        <v>601121</v>
       </c>
       <c r="C142" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D142">
-        <v>7.65</v>
+        <v>7.78</v>
       </c>
       <c r="E142">
-        <v>7.53</v>
+        <v>7.95</v>
       </c>
       <c r="F142">
-        <v>7.84</v>
+        <v>7.99</v>
       </c>
       <c r="G142">
-        <v>7.47</v>
+        <v>7.77</v>
       </c>
       <c r="H142">
-        <v>134804</v>
+        <v>112921</v>
       </c>
       <c r="I142">
-        <v>102798524</v>
+        <v>89100931</v>
       </c>
       <c r="J142">
-        <v>4.86</v>
+        <v>2.82</v>
       </c>
       <c r="K142">
-        <v>-1.18</v>
+        <v>2.05</v>
       </c>
       <c r="L142">
-        <v>-0.09</v>
+        <v>0.16</v>
       </c>
       <c r="M142">
-        <v>6.74</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>13</v>
-      </c>
-      <c r="B143" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B143">
+        <v>601121</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D143">
-        <v>7.55</v>
+        <v>7.91</v>
       </c>
       <c r="E143">
-        <v>7.44</v>
+        <v>7.62</v>
       </c>
       <c r="F143">
-        <v>7.57</v>
+        <v>7.93</v>
       </c>
       <c r="G143">
-        <v>7.42</v>
+        <v>7.62</v>
       </c>
       <c r="H143">
-        <v>84695</v>
+        <v>144098</v>
       </c>
       <c r="I143">
-        <v>63195834</v>
+        <v>111083457</v>
       </c>
       <c r="J143">
-        <v>1.99</v>
+        <v>3.9</v>
       </c>
       <c r="K143">
-        <v>-1.2</v>
+        <v>-4.15</v>
       </c>
       <c r="L143">
-        <v>-0.09</v>
+        <v>-0.33</v>
       </c>
       <c r="M143">
-        <v>4.23</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>13</v>
-      </c>
-      <c r="B144" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B144">
+        <v>601121</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D144">
-        <v>7.48</v>
+        <v>7.65</v>
       </c>
       <c r="E144">
-        <v>7.52</v>
+        <v>7.53</v>
       </c>
       <c r="F144">
-        <v>7.52</v>
+        <v>7.84</v>
       </c>
       <c r="G144">
-        <v>7.44</v>
+        <v>7.47</v>
       </c>
       <c r="H144">
-        <v>54601</v>
+        <v>134804</v>
       </c>
       <c r="I144">
-        <v>40894604</v>
+        <v>102798524</v>
       </c>
       <c r="J144">
-        <v>1.08</v>
+        <v>4.86</v>
       </c>
       <c r="K144">
-        <v>1.08</v>
+        <v>-1.18</v>
       </c>
       <c r="L144">
-        <v>0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="M144">
-        <v>2.73</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B145">
+        <v>601121</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D145">
-        <v>7.48</v>
+        <v>7.55</v>
       </c>
       <c r="E145">
-        <v>7.35</v>
+        <v>7.44</v>
       </c>
       <c r="F145">
-        <v>7.48</v>
+        <v>7.57</v>
       </c>
       <c r="G145">
-        <v>7.32</v>
+        <v>7.42</v>
       </c>
       <c r="H145">
-        <v>69787</v>
+        <v>84695</v>
       </c>
       <c r="I145">
-        <v>51385625</v>
+        <v>63195834</v>
       </c>
       <c r="J145">
-        <v>2.13</v>
+        <v>1.99</v>
       </c>
       <c r="K145">
-        <v>-2.26</v>
+        <v>-1.2</v>
       </c>
       <c r="L145">
-        <v>-0.17</v>
+        <v>-0.09</v>
       </c>
       <c r="M145">
-        <v>3.49</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B146">
+        <v>601121</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D146">
-        <v>7.33</v>
+        <v>7.48</v>
       </c>
       <c r="E146">
-        <v>7.38</v>
+        <v>7.52</v>
       </c>
       <c r="F146">
-        <v>7.41</v>
+        <v>7.52</v>
       </c>
       <c r="G146">
-        <v>7.32</v>
+        <v>7.44</v>
       </c>
       <c r="H146">
-        <v>51807</v>
+        <v>54601</v>
       </c>
       <c r="I146">
-        <v>38144989</v>
+        <v>40894604</v>
       </c>
       <c r="J146">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="K146">
-        <v>0.41</v>
+        <v>1.08</v>
       </c>
       <c r="L146">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="M146">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <v>601121</v>
       </c>
       <c r="C147" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D147">
-        <v>7.37</v>
+        <v>7.48</v>
       </c>
       <c r="E147">
-        <v>7.37</v>
+        <v>7.35</v>
       </c>
       <c r="F147">
-        <v>7.41</v>
+        <v>7.48</v>
       </c>
       <c r="G147">
         <v>7.32</v>
       </c>
       <c r="H147">
-        <v>38231</v>
+        <v>69787</v>
       </c>
       <c r="I147">
-        <v>28115305</v>
+        <v>51385625</v>
       </c>
       <c r="J147">
-        <v>1.22</v>
+        <v>2.13</v>
       </c>
       <c r="K147">
-        <v>-0.14</v>
+        <v>-2.26</v>
       </c>
       <c r="L147">
-        <v>-0.01</v>
+        <v>-0.17</v>
       </c>
       <c r="M147">
-        <v>1.91</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B148" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B148">
+        <v>601121</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D148">
-        <v>7.35</v>
+        <v>7.33</v>
       </c>
       <c r="E148">
-        <v>7.1</v>
+        <v>7.38</v>
       </c>
       <c r="F148">
-        <v>7.36</v>
+        <v>7.41</v>
       </c>
       <c r="G148">
-        <v>7.08</v>
+        <v>7.32</v>
       </c>
       <c r="H148">
-        <v>84248</v>
+        <v>51807</v>
       </c>
       <c r="I148">
-        <v>60539737</v>
+        <v>38144989</v>
       </c>
       <c r="J148">
-        <v>3.8</v>
+        <v>1.22</v>
       </c>
       <c r="K148">
-        <v>-3.66</v>
+        <v>0.41</v>
       </c>
       <c r="L148">
-        <v>-0.27</v>
+        <v>0.03</v>
       </c>
       <c r="M148">
-        <v>4.21</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B149">
+        <v>601121</v>
       </c>
       <c r="C149" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D149">
-        <v>7.05</v>
+        <v>7.37</v>
       </c>
       <c r="E149">
-        <v>7.03</v>
+        <v>7.37</v>
       </c>
       <c r="F149">
-        <v>7.15</v>
+        <v>7.41</v>
       </c>
       <c r="G149">
-        <v>7</v>
+        <v>7.32</v>
       </c>
       <c r="H149">
-        <v>55300</v>
+        <v>38231</v>
       </c>
       <c r="I149">
-        <v>39074852</v>
+        <v>28115305</v>
       </c>
       <c r="J149">
-        <v>2.11</v>
+        <v>1.22</v>
       </c>
       <c r="K149">
-        <v>-0.99</v>
+        <v>-0.14</v>
       </c>
       <c r="L149">
-        <v>-0.07000000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="M149">
-        <v>2.77</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>13</v>
-      </c>
-      <c r="B150" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B150">
+        <v>601121</v>
       </c>
       <c r="C150" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D150">
-        <v>7</v>
+        <v>7.35</v>
       </c>
       <c r="E150">
-        <v>6.96</v>
+        <v>7.1</v>
       </c>
       <c r="F150">
-        <v>7.05</v>
+        <v>7.36</v>
       </c>
       <c r="G150">
-        <v>6.95</v>
+        <v>7.08</v>
       </c>
       <c r="H150">
-        <v>42402</v>
+        <v>84248</v>
       </c>
       <c r="I150">
-        <v>29646886</v>
+        <v>60539737</v>
       </c>
       <c r="J150">
-        <v>1.42</v>
+        <v>3.8</v>
       </c>
       <c r="K150">
-        <v>-1</v>
+        <v>-3.66</v>
       </c>
       <c r="L150">
-        <v>-0.07000000000000001</v>
+        <v>-0.27</v>
       </c>
       <c r="M150">
-        <v>2.12</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>13</v>
-      </c>
-      <c r="B151" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B151">
+        <v>601121</v>
       </c>
       <c r="C151" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D151">
-        <v>6.98</v>
+        <v>7.05</v>
       </c>
       <c r="E151">
-        <v>6.69</v>
+        <v>7.03</v>
       </c>
       <c r="F151">
+        <v>7.15</v>
+      </c>
+      <c r="G151">
         <v>7</v>
       </c>
-      <c r="G151">
-        <v>6.65</v>
-      </c>
       <c r="H151">
-        <v>62500</v>
+        <v>55300</v>
       </c>
       <c r="I151">
-        <v>42245117</v>
+        <v>39074852</v>
       </c>
       <c r="J151">
-        <v>5.03</v>
+        <v>2.11</v>
       </c>
       <c r="K151">
-        <v>-3.88</v>
+        <v>-0.99</v>
       </c>
       <c r="L151">
-        <v>-0.27</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M151">
-        <v>3.13</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>13</v>
-      </c>
-      <c r="B152" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>601121</v>
       </c>
       <c r="C152" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D152">
-        <v>6.69</v>
+        <v>7</v>
       </c>
       <c r="E152">
-        <v>6.81</v>
+        <v>6.96</v>
       </c>
       <c r="F152">
-        <v>6.82</v>
+        <v>7.05</v>
       </c>
       <c r="G152">
-        <v>6.69</v>
+        <v>6.95</v>
       </c>
       <c r="H152">
-        <v>36226</v>
+        <v>42402</v>
       </c>
       <c r="I152">
-        <v>24550258</v>
+        <v>29646886</v>
       </c>
       <c r="J152">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="K152">
-        <v>1.79</v>
+        <v>-1</v>
       </c>
       <c r="L152">
-        <v>0.12</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M152">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>13</v>
-      </c>
-      <c r="B153" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B153">
+        <v>601121</v>
       </c>
       <c r="C153" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D153">
-        <v>6.92</v>
+        <v>6.98</v>
       </c>
       <c r="E153">
-        <v>6.96</v>
+        <v>6.69</v>
       </c>
       <c r="F153">
-        <v>7.06</v>
+        <v>7</v>
       </c>
       <c r="G153">
-        <v>6.9</v>
+        <v>6.65</v>
       </c>
       <c r="H153">
-        <v>51672</v>
+        <v>62500</v>
       </c>
       <c r="I153">
-        <v>36138709</v>
+        <v>42245117</v>
       </c>
       <c r="J153">
-        <v>2.35</v>
+        <v>5.03</v>
       </c>
       <c r="K153">
-        <v>2.2</v>
+        <v>-3.88</v>
       </c>
       <c r="L153">
-        <v>0.15</v>
+        <v>-0.27</v>
       </c>
       <c r="M153">
-        <v>2.58</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>13</v>
-      </c>
-      <c r="B154" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B154">
+        <v>601121</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D154">
-        <v>6.92</v>
+        <v>6.69</v>
       </c>
       <c r="E154">
-        <v>6.93</v>
+        <v>6.81</v>
       </c>
       <c r="F154">
-        <v>6.95</v>
+        <v>6.82</v>
       </c>
       <c r="G154">
-        <v>6.81</v>
+        <v>6.69</v>
       </c>
       <c r="H154">
-        <v>41651</v>
+        <v>36226</v>
       </c>
       <c r="I154">
-        <v>28664847</v>
+        <v>24550258</v>
       </c>
       <c r="J154">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="K154">
-        <v>-0.43</v>
+        <v>1.79</v>
       </c>
       <c r="L154">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
       <c r="M154">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>13</v>
-      </c>
-      <c r="B155" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B155">
+        <v>601121</v>
       </c>
       <c r="C155" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D155">
-        <v>6.89</v>
+        <v>6.92</v>
       </c>
       <c r="E155">
-        <v>7.14</v>
+        <v>6.96</v>
       </c>
       <c r="F155">
-        <v>7.18</v>
+        <v>7.06</v>
       </c>
       <c r="G155">
-        <v>6.89</v>
+        <v>6.9</v>
       </c>
       <c r="H155">
-        <v>65601</v>
+        <v>51672</v>
       </c>
       <c r="I155">
-        <v>46495638</v>
+        <v>36138709</v>
       </c>
       <c r="J155">
-        <v>4.18</v>
+        <v>2.35</v>
       </c>
       <c r="K155">
-        <v>3.03</v>
+        <v>2.2</v>
       </c>
       <c r="L155">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="M155">
-        <v>3.28</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>13</v>
-      </c>
-      <c r="B156" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B156">
+        <v>601121</v>
       </c>
       <c r="C156" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D156">
-        <v>7.11</v>
+        <v>6.92</v>
       </c>
       <c r="E156">
-        <v>7.33</v>
+        <v>6.93</v>
       </c>
       <c r="F156">
-        <v>7.36</v>
+        <v>6.95</v>
       </c>
       <c r="G156">
-        <v>7.09</v>
+        <v>6.81</v>
       </c>
       <c r="H156">
-        <v>82403</v>
+        <v>41651</v>
       </c>
       <c r="I156">
-        <v>60036875</v>
+        <v>28664847</v>
       </c>
       <c r="J156">
-        <v>3.78</v>
+        <v>2.01</v>
       </c>
       <c r="K156">
-        <v>2.66</v>
+        <v>-0.43</v>
       </c>
       <c r="L156">
-        <v>0.19</v>
+        <v>-0.03</v>
       </c>
       <c r="M156">
-        <v>4.12</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>13</v>
-      </c>
-      <c r="B157" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B157">
+        <v>601121</v>
       </c>
       <c r="C157" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D157">
-        <v>7.33</v>
+        <v>6.89</v>
       </c>
       <c r="E157">
-        <v>7.26</v>
+        <v>7.14</v>
       </c>
       <c r="F157">
-        <v>7.33</v>
+        <v>7.18</v>
       </c>
       <c r="G157">
-        <v>7.2</v>
+        <v>6.89</v>
       </c>
       <c r="H157">
-        <v>50741</v>
+        <v>65601</v>
       </c>
       <c r="I157">
-        <v>36756148</v>
+        <v>46495638</v>
       </c>
       <c r="J157">
-        <v>1.77</v>
+        <v>4.18</v>
       </c>
       <c r="K157">
-        <v>-0.95</v>
+        <v>3.03</v>
       </c>
       <c r="L157">
-        <v>-0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="M157">
-        <v>2.54</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>13</v>
-      </c>
-      <c r="B158" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B158">
+        <v>601121</v>
       </c>
       <c r="C158" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D158">
-        <v>7.4</v>
+        <v>7.11</v>
       </c>
       <c r="E158">
-        <v>7.27</v>
+        <v>7.33</v>
       </c>
       <c r="F158">
-        <v>7.48</v>
+        <v>7.36</v>
       </c>
       <c r="G158">
-        <v>7.22</v>
+        <v>7.09</v>
       </c>
       <c r="H158">
-        <v>116379</v>
+        <v>82403</v>
       </c>
       <c r="I158">
-        <v>85148340</v>
+        <v>60036875</v>
       </c>
       <c r="J158">
-        <v>3.58</v>
+        <v>3.78</v>
       </c>
       <c r="K158">
-        <v>0.14</v>
+        <v>2.66</v>
       </c>
       <c r="L158">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="M158">
-        <v>5.82</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>13</v>
-      </c>
-      <c r="B159" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B159">
+        <v>601121</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D159">
-        <v>7.32</v>
+        <v>7.33</v>
       </c>
       <c r="E159">
-        <v>7.18</v>
+        <v>7.26</v>
       </c>
       <c r="F159">
-        <v>7.34</v>
+        <v>7.33</v>
       </c>
       <c r="G159">
-        <v>7.15</v>
+        <v>7.2</v>
       </c>
       <c r="H159">
-        <v>70182</v>
+        <v>50741</v>
       </c>
       <c r="I159">
-        <v>50609192</v>
+        <v>36756148</v>
       </c>
       <c r="J159">
-        <v>2.61</v>
+        <v>1.77</v>
       </c>
       <c r="K159">
-        <v>-1.24</v>
+        <v>-0.95</v>
       </c>
       <c r="L159">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M159">
-        <v>3.51</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>13</v>
-      </c>
-      <c r="B160" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B160">
+        <v>601121</v>
       </c>
       <c r="C160" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D160">
+        <v>7.4</v>
+      </c>
+      <c r="E160">
+        <v>7.27</v>
+      </c>
+      <c r="F160">
+        <v>7.48</v>
+      </c>
+      <c r="G160">
+        <v>7.22</v>
+      </c>
+      <c r="H160">
+        <v>116379</v>
+      </c>
+      <c r="I160">
+        <v>85148340</v>
+      </c>
+      <c r="J160">
+        <v>3.58</v>
+      </c>
+      <c r="K160">
+        <v>0.14</v>
+      </c>
+      <c r="L160">
+        <v>0.01</v>
+      </c>
+      <c r="M160">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161">
+        <v>601121</v>
+      </c>
+      <c r="C161" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161">
+        <v>7.32</v>
+      </c>
+      <c r="E161">
+        <v>7.18</v>
+      </c>
+      <c r="F161">
+        <v>7.34</v>
+      </c>
+      <c r="G161">
+        <v>7.15</v>
+      </c>
+      <c r="H161">
+        <v>70182</v>
+      </c>
+      <c r="I161">
+        <v>50609192</v>
+      </c>
+      <c r="J161">
+        <v>2.61</v>
+      </c>
+      <c r="K161">
+        <v>-1.24</v>
+      </c>
+      <c r="L161">
+        <v>-0.09</v>
+      </c>
+      <c r="M161">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162">
+        <v>601121</v>
+      </c>
+      <c r="C162" t="s">
+        <v>181</v>
+      </c>
+      <c r="D162">
         <v>7.17</v>
       </c>
-      <c r="E160">
+      <c r="E162">
         <v>7.17</v>
       </c>
-      <c r="F160">
+      <c r="F162">
         <v>7.22</v>
       </c>
-      <c r="G160">
+      <c r="G162">
         <v>7.15</v>
       </c>
-      <c r="H160">
+      <c r="H162">
         <v>43296</v>
       </c>
-      <c r="I160">
+      <c r="I162">
         <v>31129524</v>
       </c>
-      <c r="J160">
+      <c r="J162">
         <v>0.97</v>
       </c>
-      <c r="K160">
+      <c r="K162">
         <v>-0.14</v>
       </c>
-      <c r="L160">
+      <c r="L162">
         <v>-0.01</v>
       </c>
-      <c r="M160">
+      <c r="M162">
         <v>2.16</v>
       </c>
     </row>
